--- a/Abu Files For Backup/Heat Load Calculation (4).xlsx
+++ b/Abu Files For Backup/Heat Load Calculation (4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIRCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD52ED8-9174-462D-8206-6B17B19BAFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC77C29-869C-4FA7-9543-7E5F5B3AA853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXTERNAL WALL LOAD" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="559">
   <si>
     <t>Space</t>
   </si>
@@ -1865,6 +1865,15 @@
   <si>
     <t>Private Room 16 CR</t>
   </si>
+  <si>
+    <t>Storage Area</t>
+  </si>
+  <si>
+    <t>8 L/s</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
@@ -2022,7 +2031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2136,8 +2145,14 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2307,6 +2322,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2315,7 +2341,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2679,6 +2705,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2703,6 +2743,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2712,12 +2758,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2725,9 +2765,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2739,7 +2776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2760,6 +2797,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2777,7 +2817,7 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="384">
+  <dxfs count="385">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7613,6 +7653,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -10312,23 +10374,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K37" totalsRowShown="0" headerRowDxfId="383" headerRowBorderDxfId="382" tableBorderDxfId="381" totalsRowBorderDxfId="380">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K37" totalsRowShown="0" headerRowDxfId="384" headerRowBorderDxfId="383" tableBorderDxfId="382" totalsRowBorderDxfId="381">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Space" dataDxfId="379"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Orientation" dataDxfId="378"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="U" dataDxfId="377"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A(m^2)" dataDxfId="376"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLTDsel" dataDxfId="375"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LM" dataDxfId="374"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="k" dataDxfId="373"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ti" dataDxfId="372"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tave" dataDxfId="371">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Space" dataDxfId="380"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Orientation" dataDxfId="379"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="U" dataDxfId="378"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A(m^2)" dataDxfId="377"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLTDsel" dataDxfId="376"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LM" dataDxfId="375"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="k" dataDxfId="374"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ti" dataDxfId="373"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tave" dataDxfId="372">
       <calculatedColumnFormula>(References!T$4)-(References!T$3/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CLTD adj" dataDxfId="370">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CLTD adj" dataDxfId="371">
       <calculatedColumnFormula>(E4+F4)*G4+(25-H4)+(I4-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q(W)" dataDxfId="369">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q(W)" dataDxfId="370">
       <calculatedColumnFormula>C4*D4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10474,7 +10536,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:I40" totalsRowShown="0" headerRowDxfId="169" dataDxfId="167" headerRowBorderDxfId="168" tableBorderDxfId="166" totalsRowBorderDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:I46" totalsRowShown="0" headerRowDxfId="169" dataDxfId="167" headerRowBorderDxfId="168" tableBorderDxfId="166" totalsRowBorderDxfId="165">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="164" totalsRowDxfId="163"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="162" totalsRowDxfId="161"/>
@@ -10497,24 +10559,24 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:I89" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A51:I95" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="142"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="141"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="140">
-      <calculatedColumnFormula>B46*References!AT4</calculatedColumnFormula>
+      <calculatedColumnFormula>B52*References!AT4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="139"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="138"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="137"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="136">
-      <calculatedColumnFormula>_xlfn.IFS(E46=22.5,0.00848061,E46=22,0.00821976,E46=24,0.00929323)</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.IFS(E52=22.5,0.00848061,E52=22,0.00821976,E52=24,0.00929323)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="135">
-      <calculatedColumnFormula>ABS(1.232*C46*(D46-E46))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(1.232*C52*(D52-E52))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="134">
-      <calculatedColumnFormula>ABS(3000*C46*(F46-G46))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(3000*C52*(F52-G52))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10522,24 +10584,24 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:I126" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A100:I132" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130" totalsRowBorderDxfId="129">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="128"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="127"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="126">
-      <calculatedColumnFormula>B95*References!AU4</calculatedColumnFormula>
+      <calculatedColumnFormula>B101*References!AU4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="125"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="124"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="123"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="122">
-      <calculatedColumnFormula>_xlfn.IFS(E95=22.5,0.00848031,E95=24,0.009293235,E95=22,0.00821976)</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.IFS(E101=22.5,0.00848031,E101=24,0.009293235,E101=22,0.00821976)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="121">
-      <calculatedColumnFormula>ABS(1.232*C95*(D95-E95))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(1.232*C101*(D101-E101))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="120">
-      <calculatedColumnFormula>ABS(3000*C95*(F95-G95))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(3000*C101*(F101-G101))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10547,29 +10609,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A88:K130" totalsRowShown="0" headerRowDxfId="368" headerRowBorderDxfId="367" tableBorderDxfId="366" totalsRowBorderDxfId="365">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A88:K130" totalsRowShown="0" headerRowDxfId="369" headerRowBorderDxfId="368" tableBorderDxfId="367" totalsRowBorderDxfId="366">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Space" dataDxfId="364"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Orientation" dataDxfId="363"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="U" dataDxfId="362"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="A(m^2)" dataDxfId="361">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Space" dataDxfId="365"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Orientation" dataDxfId="364"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="U" dataDxfId="363"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="A(m^2)" dataDxfId="362">
       <calculatedColumnFormula>(References!C41*4)-(References!B41*1)-(References!A41*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLTDsel" dataDxfId="360">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLTDsel" dataDxfId="361">
       <calculatedColumnFormula>_xlfn.IFS(B89="E",25,B89="N",13,B89="W",33,B89="S",22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LM" dataDxfId="359">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LM" dataDxfId="360">
       <calculatedColumnFormula>_xlfn.IFS(B89="E",-0.55,B89="N",2.22,B89="W",-0.55,B89="S",-3.88)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="k" dataDxfId="358"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ti" dataDxfId="357"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tave" dataDxfId="356">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="k" dataDxfId="359"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ti" dataDxfId="358"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tave" dataDxfId="357">
       <calculatedColumnFormula>(References!T$4)-(References!T$3/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="CLTD adj" dataDxfId="355">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="CLTD adj" dataDxfId="356">
       <calculatedColumnFormula>(E89+F89)*G89+(25-H89)+(I89-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Q(W)" dataDxfId="354">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Q(W)" dataDxfId="355">
       <calculatedColumnFormula>C89*D89*E89</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10747,21 +10809,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A41:K84" totalsRowShown="0" headerRowDxfId="353" headerRowBorderDxfId="352" tableBorderDxfId="351" totalsRowBorderDxfId="350">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A41:K84" totalsRowShown="0" headerRowDxfId="354" headerRowBorderDxfId="353" tableBorderDxfId="352" totalsRowBorderDxfId="351">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Space" dataDxfId="349"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Orientation" dataDxfId="348"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="U" dataDxfId="347"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="A(m^2)" dataDxfId="346"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CLTDsel" dataDxfId="345"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="LM" dataDxfId="344"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="k" dataDxfId="343"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Ti" dataDxfId="342"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tave" dataDxfId="341"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="CLTD adj" dataDxfId="340">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Space" dataDxfId="350"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Orientation" dataDxfId="349"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="U" dataDxfId="348"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="A(m^2)" dataDxfId="347"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CLTDsel" dataDxfId="346"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="LM" dataDxfId="345"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="k" dataDxfId="344"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Ti" dataDxfId="343"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tave" dataDxfId="342"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="CLTD adj" dataDxfId="341">
       <calculatedColumnFormula>(E42+F42)*G42+(25-H42)+(I42-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Q(W)" dataDxfId="339">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Q(W)" dataDxfId="340">
       <calculatedColumnFormula>C42*D42*J42</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10770,27 +10832,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="337" headerRowBorderDxfId="336" tableBorderDxfId="335" totalsRowBorderDxfId="334">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="338" headerRowBorderDxfId="337" tableBorderDxfId="336" totalsRowBorderDxfId="335">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="333"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="332"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="331"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="330"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="329"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="328">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="334"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="333"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="332"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="331"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="330"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="329">
       <calculatedColumnFormula>References!E5*References!F5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="327">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="328">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",685,B4="N",120,B4="W",685,B4="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="326">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="327">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",0.8,B4="N",0.91,B4="W",0.82,B4="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="325"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="324">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="326"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="325">
       <calculatedColumnFormula>G4*H4*F4*I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="323">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="324">
       <calculatedColumnFormula>ABS((C4*F4)*(D4-E4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10799,27 +10861,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A73:K99" totalsRowShown="0" headerRowDxfId="322" dataDxfId="320" headerRowBorderDxfId="321" tableBorderDxfId="319" totalsRowBorderDxfId="318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A73:K99" totalsRowShown="0" headerRowDxfId="323" dataDxfId="321" headerRowBorderDxfId="322" tableBorderDxfId="320" totalsRowBorderDxfId="319">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="317"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="316"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="315"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="314"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="313"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="312">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="318"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="317"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="316"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="315"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="314"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="313">
       <calculatedColumnFormula>References!E41*References!F41</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="311">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="312">
       <calculatedColumnFormula>_xlfn.IFS(B74="E",685,B74="N",120,B74="W",685,B74="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="310">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="311">
       <calculatedColumnFormula>_xlfn.IFS(B74="E",0.8,B74="N",0.91,B74="W",0.82,B74="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="309"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="308">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="310"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="309">
       <calculatedColumnFormula>G74*H74*F74*I74</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="307">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="308">
       <calculatedColumnFormula>ABS((C74*F74)*(D74-E74))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10828,25 +10890,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A39:K68" totalsRowShown="0" headerRowDxfId="306" headerRowBorderDxfId="305" tableBorderDxfId="304" totalsRowBorderDxfId="303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A39:K68" totalsRowShown="0" headerRowDxfId="307" headerRowBorderDxfId="306" tableBorderDxfId="305" totalsRowBorderDxfId="304">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="302"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="301"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="300"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="299"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="298"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="297"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="296">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="302"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="301"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="300"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="299"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="298"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="297">
       <calculatedColumnFormula>_xlfn.IFS(B40="N",120,B40="E",685,B40="S",230,B40="W",685)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="295">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="296">
       <calculatedColumnFormula>_xlfn.IFS(B40="N",0.91,B40="E",0.8,B40="S",0.83,B40="W",0.82)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="294"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="293">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="295"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="294">
       <calculatedColumnFormula>I40*H40*G40*F40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="292">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="293">
       <calculatedColumnFormula>ABS((C40*F40)*(D40-E40))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10855,25 +10917,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="291" headerRowBorderDxfId="290" tableBorderDxfId="289" totalsRowBorderDxfId="288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="292" headerRowBorderDxfId="291" tableBorderDxfId="290" totalsRowBorderDxfId="289">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="286">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="287">
       <calculatedColumnFormula>References!AB4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="285">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="286">
       <calculatedColumnFormula>((0.15+0.01*3+0.007*(D78-E78))*B78)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="284"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="283"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="281">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="285"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="284"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="283"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="282">
       <calculatedColumnFormula>_xlfn.IFS(E78=22.5,0.00848061,E78=22,0.00821976,E78=24,0.00929323,E78=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="280">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="281">
       <calculatedColumnFormula>ABS(1.23*C78*(D78-E78))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="279">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="280">
       <calculatedColumnFormula>ABS(3000*C78*(F78-G78))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10882,25 +10944,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I236" totalsRowShown="0" headerRowDxfId="278" headerRowBorderDxfId="277" tableBorderDxfId="276" totalsRowBorderDxfId="275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I236" totalsRowShown="0" headerRowDxfId="279" headerRowBorderDxfId="278" tableBorderDxfId="277" totalsRowBorderDxfId="276">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="274"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="273">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="274">
       <calculatedColumnFormula>References!AE4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="272">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="273">
       <calculatedColumnFormula>(References!AD4*B163)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="271"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="270"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="269"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="268">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="271"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="270"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="269">
       <calculatedColumnFormula>_xlfn.IFS(E163=22.5,0.00848031,E163=24,0.009293235,E163=22,0.00821976,E163=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="267">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="268">
       <calculatedColumnFormula>ABS(1.232*(D163-E163)*C163)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="266">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="267">
       <calculatedColumnFormula>ABS(3000*C163*(F163-G163))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10909,25 +10971,26 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="265" headerRowBorderDxfId="264" tableBorderDxfId="263" totalsRowBorderDxfId="262">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="261"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="260">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:J72" totalsRowShown="0" headerRowDxfId="266" headerRowBorderDxfId="265" tableBorderDxfId="264" totalsRowBorderDxfId="263">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="262"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="261">
       <calculatedColumnFormula>References!Z4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="259">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="260">
       <calculatedColumnFormula>(References!Y4*B4)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="258"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="257"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="256"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="255"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="254">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="259"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="258"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="257"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="256"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="255">
       <calculatedColumnFormula>ABS((1.232*(D4-E4)*C4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="253">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="254">
       <calculatedColumnFormula>ABS(3000*C4*(F4-G4))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="10" xr3:uid="{CD8D18E2-0026-45D8-832E-5B95CD03B163}" name="Column1" dataDxfId="253"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11233,8 +11296,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11253,34 +11316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -11317,14 +11380,14 @@
         <v>10</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="N3" s="175" t="s">
+      <c r="N3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -11365,14 +11428,14 @@
         <v>1492.92</v>
       </c>
       <c r="M4" s="150"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176" t="s">
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182" t="s">
         <v>430</v>
       </c>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -11413,17 +11476,17 @@
         <v>564.59519999999998</v>
       </c>
       <c r="M5" s="150"/>
-      <c r="N5" s="177" t="s">
+      <c r="N5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177">
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183">
         <f>K38</f>
         <v>39227.857343999996</v>
       </c>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -11464,17 +11527,17 @@
         <v>204.66575999999998</v>
       </c>
       <c r="M6" s="150"/>
-      <c r="N6" s="177" t="s">
+      <c r="N6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177">
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183">
         <f>K85</f>
         <v>31364.094930011994</v>
       </c>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -11515,17 +11578,17 @@
         <v>177.847488</v>
       </c>
       <c r="M7" s="150"/>
-      <c r="N7" s="177" t="s">
+      <c r="N7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177">
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183">
         <f>K131</f>
         <v>48205.328184000005</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -11566,17 +11629,17 @@
         <v>398.03961599999997</v>
       </c>
       <c r="M8" s="150"/>
-      <c r="N8" s="178" t="s">
+      <c r="N8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="171">
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="177">
         <f>Q5+Q6+Q7</f>
         <v>118797.28045801198</v>
       </c>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -11617,12 +11680,12 @@
         <v>398.03961599999997</v>
       </c>
       <c r="M9" s="150"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -12755,19 +12818,19 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="172" t="s">
+      <c r="A40" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
@@ -14474,19 +14537,19 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A87" s="173" t="s">
+      <c r="A87" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
-      <c r="F87" s="173"/>
-      <c r="G87" s="173"/>
-      <c r="H87" s="173"/>
-      <c r="I87" s="173"/>
-      <c r="J87" s="173"/>
-      <c r="K87" s="173"/>
+      <c r="B87" s="179"/>
+      <c r="C87" s="179"/>
+      <c r="D87" s="179"/>
+      <c r="E87" s="179"/>
+      <c r="F87" s="179"/>
+      <c r="G87" s="179"/>
+      <c r="H87" s="179"/>
+      <c r="I87" s="179"/>
+      <c r="J87" s="179"/>
+      <c r="K87" s="179"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
@@ -16343,26 +16406,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
       <c r="G1" s="111"/>
       <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
     </row>
@@ -16385,14 +16448,14 @@
       <c r="F3" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="175" t="s">
+      <c r="J3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -16415,14 +16478,14 @@
         <f>B4*C4*D4*E4</f>
         <v>411.74972279999997</v>
       </c>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176" t="s">
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
@@ -16445,17 +16508,17 @@
         <f t="shared" ref="F5:F61" si="0">B5*C5*D5*E5</f>
         <v>106.14389759999999</v>
       </c>
-      <c r="J5" s="177" t="s">
+      <c r="J5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177">
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183">
         <f>F63</f>
         <v>19883.609740799991</v>
       </c>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
@@ -16478,17 +16541,17 @@
         <f t="shared" si="0"/>
         <v>57.317909999999991</v>
       </c>
-      <c r="J6" s="177" t="s">
+      <c r="J6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177">
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183">
         <f>F117</f>
         <v>16958.066184539995</v>
       </c>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
@@ -16511,17 +16574,17 @@
         <f t="shared" si="0"/>
         <v>119.581254</v>
       </c>
-      <c r="J7" s="177" t="s">
+      <c r="J7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177">
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183">
         <f>F167</f>
         <v>22702.400073599994</v>
       </c>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
@@ -16544,17 +16607,17 @@
         <f t="shared" si="0"/>
         <v>134.1690012</v>
       </c>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="192">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="197">
         <f>M5+M6+M7</f>
         <v>59544.075998939981</v>
       </c>
-      <c r="N8" s="193"/>
-      <c r="O8" s="194"/>
+      <c r="N8" s="198"/>
+      <c r="O8" s="199"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
@@ -16577,12 +16640,12 @@
         <f t="shared" si="0"/>
         <v>134.51580479999998</v>
       </c>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="197"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="202"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
@@ -17760,14 +17823,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="172" t="s">
+      <c r="A65" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="172"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
       <c r="G65" s="103"/>
       <c r="H65" s="103"/>
     </row>
@@ -18903,14 +18966,14 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A119" s="173" t="s">
+      <c r="A119" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="173"/>
-      <c r="C119" s="173"/>
-      <c r="D119" s="173"/>
-      <c r="E119" s="173"/>
-      <c r="F119" s="173"/>
+      <c r="B119" s="179"/>
+      <c r="C119" s="179"/>
+      <c r="D119" s="179"/>
+      <c r="E119" s="179"/>
+      <c r="F119" s="179"/>
       <c r="G119" s="106"/>
       <c r="H119" s="106"/>
     </row>
@@ -20006,12 +20069,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="119" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="206" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
@@ -20134,15 +20197,15 @@
       </c>
       <c r="B9" s="82">
         <f>'VENTILATION LOAD'!R8</f>
-        <v>42448.868000000002</v>
+        <v>43056.86</v>
       </c>
       <c r="C9" s="82">
         <f>'VENTILATION LOAD'!S8</f>
-        <v>83339.590698000015</v>
+        <v>84586.526595000032</v>
       </c>
       <c r="D9" s="82">
         <f t="shared" si="0"/>
-        <v>125788.45869800002</v>
+        <v>127643.38659500003</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20200,15 +20263,15 @@
       </c>
       <c r="B13" s="145">
         <f>SUM(B3:B12)</f>
-        <v>399833.84350221185</v>
+        <v>400441.83550221182</v>
       </c>
       <c r="C13" s="145">
         <f>SUM(C3:C12)</f>
-        <v>141659.51631737937</v>
+        <v>142906.45221437939</v>
       </c>
       <c r="D13" s="146">
         <f>B13+C13</f>
-        <v>541493.35981959128</v>
+        <v>543348.28771659127</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -20229,8 +20292,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BC106"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC26" sqref="BC26"/>
+    <sheetView topLeftCell="T13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT46" sqref="AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20264,17 +20327,17 @@
         <v>43</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="Y2" s="184" t="s">
+      <c r="Y2" s="190" t="s">
         <v>297</v>
       </c>
-      <c r="Z2" s="184"/>
+      <c r="Z2" s="190"/>
       <c r="AB2" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="184" t="s">
+      <c r="AD2" s="190" t="s">
         <v>318</v>
       </c>
-      <c r="AE2" s="184"/>
+      <c r="AE2" s="190"/>
       <c r="AG2" t="s">
         <v>543</v>
       </c>
@@ -20313,10 +20376,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="184"/>
+      <c r="B3" s="190"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
@@ -23387,11 +23450,11 @@
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="190"/>
       <c r="Y38" s="47">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D37-'INFILTRATION LOAD'!E37)</f>
         <v>0.26400000000000001</v>
@@ -23466,11 +23529,11 @@
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
       <c r="Y39" s="47">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D38-'INFILTRATION LOAD'!E38)</f>
         <v>0.26400000000000001</v>
@@ -27072,34 +27135,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
     </row>
     <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -27135,14 +27198,14 @@
       <c r="K3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="175" t="s">
+      <c r="O3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -27183,9 +27246,9 @@
         <f t="shared" ref="K4:K33" si="0">ABS((C4*F4)*(D4-E4))</f>
         <v>137.8656</v>
       </c>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
       <c r="R4" s="133" t="s">
         <v>541</v>
       </c>
@@ -27235,11 +27298,11 @@
         <f t="shared" si="0"/>
         <v>41.359679999999997</v>
       </c>
-      <c r="O5" s="177" t="s">
+      <c r="O5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
       <c r="R5" s="6">
         <f>J35</f>
         <v>14479.770250000001</v>
@@ -27292,11 +27355,11 @@
         <f t="shared" si="0"/>
         <v>10.856916</v>
       </c>
-      <c r="O6" s="177" t="s">
+      <c r="O6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
       <c r="R6" s="6">
         <f>J69</f>
         <v>12911.636650000004</v>
@@ -27349,11 +27412,11 @@
         <f t="shared" si="0"/>
         <v>21.713832</v>
       </c>
-      <c r="O7" s="177" t="s">
+      <c r="O7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
       <c r="R7" s="6">
         <f>J100</f>
         <v>11242.204599999995</v>
@@ -27406,20 +27469,20 @@
         <f t="shared" si="0"/>
         <v>21.713832</v>
       </c>
-      <c r="O8" s="178" t="s">
+      <c r="O8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="182">
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="185">
         <f>SUM(R5:R7)</f>
         <v>38633.611499999999</v>
       </c>
-      <c r="S8" s="182">
+      <c r="S8" s="185">
         <f>SUM(S5:S7)</f>
         <v>5763.8469070000001</v>
       </c>
-      <c r="T8" s="182">
+      <c r="T8" s="185">
         <f>T5+T6+T7</f>
         <v>44397.458406999998</v>
       </c>
@@ -27463,12 +27526,12 @@
         <f t="shared" si="0"/>
         <v>56.422000000000004</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -28458,10 +28521,10 @@
       <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="179" t="s">
+      <c r="H35" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="179"/>
+      <c r="I35" s="187"/>
       <c r="J35" s="41">
         <f>SUM(J4:J33)</f>
         <v>14479.770250000001</v>
@@ -28472,15 +28535,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="179" t="s">
+      <c r="H36" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180">
+      <c r="I36" s="187"/>
+      <c r="J36" s="188">
         <f>J35+K35</f>
         <v>16506.69152</v>
       </c>
-      <c r="K36" s="181"/>
+      <c r="K36" s="189"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H37" s="3"/>
@@ -28489,19 +28552,19 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="173"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="179"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
@@ -29670,10 +29733,10 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H69" s="179" t="s">
+      <c r="H69" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="I69" s="179"/>
+      <c r="I69" s="187"/>
       <c r="J69" s="41">
         <f>SUM(J40:J68)</f>
         <v>12911.636650000004</v>
@@ -29684,30 +29747,30 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H70" s="179" t="s">
+      <c r="H70" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="179"/>
-      <c r="J70" s="180">
+      <c r="I70" s="187"/>
+      <c r="J70" s="188">
         <f>J69+K69</f>
         <v>15097.460593000003</v>
       </c>
-      <c r="K70" s="181"/>
+      <c r="K70" s="189"/>
     </row>
     <row r="72" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="173" t="s">
+      <c r="A72" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="173"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="173"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="173"/>
+      <c r="B72" s="179"/>
+      <c r="C72" s="179"/>
+      <c r="D72" s="179"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
+      <c r="G72" s="179"/>
+      <c r="H72" s="179"/>
+      <c r="I72" s="179"/>
+      <c r="J72" s="179"/>
+      <c r="K72" s="179"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
@@ -30785,10 +30848,10 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H100" s="179" t="s">
+      <c r="H100" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="I100" s="179"/>
+      <c r="I100" s="187"/>
       <c r="J100" s="41">
         <f>SUM(J74:J99)</f>
         <v>11242.204599999995</v>
@@ -30799,27 +30862,18 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H101" s="179" t="s">
+      <c r="H101" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="I101" s="179"/>
-      <c r="J101" s="180">
+      <c r="I101" s="187"/>
+      <c r="J101" s="188">
         <f>J100+K100</f>
         <v>12793.306293999995</v>
       </c>
-      <c r="K101" s="181"/>
+      <c r="K101" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H70:I70"/>
@@ -30833,9 +30887,18 @@
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="A73:K99">
-    <cfRule type="cellIs" dxfId="338" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30857,8 +30920,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30881,32 +30944,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="127"/>
       <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="106"/>
       <c r="K2" s="106"/>
     </row>
@@ -30938,14 +31001,17 @@
       <c r="I3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="175" t="s">
+      <c r="J3" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="L3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -30979,9 +31045,10 @@
         <f t="shared" ref="I4:I35" si="1">ABS(3000*C4*(F4-G4))</f>
         <v>291.35822808945596</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
       <c r="O4" s="133" t="s">
         <v>541</v>
       </c>
@@ -31024,11 +31091,12 @@
         <f t="shared" si="1"/>
         <v>82.010154749951994</v>
       </c>
-      <c r="L5" s="177" t="s">
+      <c r="J5" s="6"/>
+      <c r="L5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
       <c r="O5" s="6">
         <f>H73</f>
         <v>6335.2156108951121</v>
@@ -31074,11 +31142,14 @@
         <f t="shared" si="1"/>
         <v>58.418394054637488</v>
       </c>
-      <c r="L6" s="177" t="s">
+      <c r="J6" s="175">
+        <v>7.8174999999999999</v>
+      </c>
+      <c r="L6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
       <c r="O6" s="6">
         <f>H158</f>
         <v>5646.4769823865836</v>
@@ -31124,11 +31195,12 @@
         <f t="shared" si="1"/>
         <v>138.58842619511998</v>
       </c>
-      <c r="L7" s="177" t="s">
+      <c r="J7" s="6"/>
+      <c r="L7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
       <c r="O7" s="6">
         <f>H237</f>
         <v>5262.10371996711</v>
@@ -31174,20 +31246,21 @@
         <f t="shared" si="1"/>
         <v>21.203990166937498</v>
       </c>
-      <c r="L8" s="178" t="s">
+      <c r="J8" s="6"/>
+      <c r="L8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="182">
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="185">
         <f>SUM(O5:O7)</f>
         <v>17243.796313248808</v>
       </c>
-      <c r="P8" s="182">
+      <c r="P8" s="185">
         <f>SUM(P5:P7)</f>
         <v>36486.734712379381</v>
       </c>
-      <c r="Q8" s="182">
+      <c r="Q8" s="185">
         <f>Q5+Q6+Q7</f>
         <v>53730.531025628181</v>
       </c>
@@ -31224,12 +31297,13 @@
         <f t="shared" si="1"/>
         <v>136.74499963482148</v>
       </c>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="183"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
@@ -31265,6 +31339,7 @@
         <f t="shared" si="1"/>
         <v>137.09846174403597</v>
       </c>
+      <c r="J10" s="6"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -31302,6 +31377,7 @@
         <f t="shared" si="1"/>
         <v>206.81723185632001</v>
       </c>
+      <c r="J11" s="6"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -31339,6 +31415,9 @@
         <f t="shared" si="1"/>
         <v>41.922250162650002</v>
       </c>
+      <c r="J12" s="175">
+        <v>5.61</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -31376,6 +31455,7 @@
         <f t="shared" si="1"/>
         <v>1115.7092712480001</v>
       </c>
+      <c r="J13" s="6"/>
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
     </row>
@@ -31411,6 +31491,7 @@
         <f t="shared" si="1"/>
         <v>27.714269015725495</v>
       </c>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -31444,6 +31525,7 @@
         <f t="shared" si="1"/>
         <v>166.87033912348798</v>
       </c>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -31477,6 +31559,7 @@
         <f t="shared" si="1"/>
         <v>265.87785301492795</v>
       </c>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -31510,6 +31593,9 @@
         <f t="shared" si="1"/>
         <v>29.720708261477991</v>
       </c>
+      <c r="J17" s="175">
+        <v>3.9771999999999998</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -31543,6 +31629,7 @@
         <f t="shared" si="1"/>
         <v>176.310106293552</v>
       </c>
+      <c r="J18" s="6"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -31578,6 +31665,7 @@
         <f t="shared" si="1"/>
         <v>152.538615917952</v>
       </c>
+      <c r="J19" s="6"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -31613,6 +31701,7 @@
         <f t="shared" si="1"/>
         <v>158.31345232876799</v>
       </c>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -31646,6 +31735,7 @@
         <f t="shared" si="1"/>
         <v>145.62682672348799</v>
       </c>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -31679,8 +31769,9 @@
         <f t="shared" si="1"/>
         <v>98.622581446751994</v>
       </c>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
+      <c r="J22" s="6"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -31714,6 +31805,7 @@
         <f t="shared" si="1"/>
         <v>22.248683673664495</v>
       </c>
+      <c r="J23" s="6"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -31751,6 +31843,7 @@
         <f t="shared" si="1"/>
         <v>3117.460883068793</v>
       </c>
+      <c r="J24" s="6"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -31788,6 +31881,7 @@
         <f t="shared" si="1"/>
         <v>290.569518432</v>
       </c>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
@@ -31821,6 +31915,7 @@
         <f t="shared" si="1"/>
         <v>107.7258513804</v>
       </c>
+      <c r="J26" s="6"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -31858,6 +31953,7 @@
         <f t="shared" si="1"/>
         <v>24.184131586699497</v>
       </c>
+      <c r="J27" s="6"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -31895,6 +31991,7 @@
         <f t="shared" si="1"/>
         <v>122.20203047025598</v>
       </c>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -31928,6 +32025,7 @@
         <f t="shared" si="1"/>
         <v>122.20203047025598</v>
       </c>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -31961,6 +32059,7 @@
         <f t="shared" si="1"/>
         <v>76.180085206895995</v>
       </c>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
@@ -31994,6 +32093,7 @@
         <f t="shared" si="1"/>
         <v>122.66513904057601</v>
       </c>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -32027,8 +32127,9 @@
         <f t="shared" si="1"/>
         <v>122.66513904057601</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>262</v>
       </c>
@@ -32060,8 +32161,9 @@
         <f t="shared" si="1"/>
         <v>46.629509717999994</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>263</v>
       </c>
@@ -32093,8 +32195,9 @@
         <f t="shared" si="1"/>
         <v>46.820701329599991</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>264</v>
       </c>
@@ -32126,8 +32229,9 @@
         <f t="shared" si="1"/>
         <v>47.893923576048003</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>265</v>
       </c>
@@ -32159,8 +32263,11 @@
         <f t="shared" ref="I36:I72" si="3">ABS(3000*C36*(F36-G36))</f>
         <v>41.2519425263595</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="175">
+        <v>5.5202999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>266</v>
       </c>
@@ -32192,8 +32299,9 @@
         <f t="shared" si="3"/>
         <v>77.744457460031995</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>267</v>
       </c>
@@ -32225,8 +32333,9 @@
         <f t="shared" si="3"/>
         <v>42.080848842912005</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>268</v>
       </c>
@@ -32258,8 +32367,9 @@
         <f t="shared" si="3"/>
         <v>214.59176537884801</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>269</v>
       </c>
@@ -32291,8 +32401,9 @@
         <f t="shared" si="3"/>
         <v>122.20203047025598</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>270</v>
       </c>
@@ -32324,8 +32435,9 @@
         <f t="shared" si="3"/>
         <v>122.20203047025598</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>271</v>
       </c>
@@ -32357,8 +32469,9 @@
         <f t="shared" si="3"/>
         <v>88.525964873279975</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>272</v>
       </c>
@@ -32390,8 +32503,9 @@
         <f t="shared" si="3"/>
         <v>84.80835020328</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>273</v>
       </c>
@@ -32423,8 +32537,9 @@
         <f t="shared" si="3"/>
         <v>122.66513904057601</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>274</v>
       </c>
@@ -32456,8 +32571,9 @@
         <f t="shared" si="3"/>
         <v>122.66513904057601</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>275</v>
       </c>
@@ -32489,8 +32605,9 @@
         <f t="shared" si="3"/>
         <v>71.64162121775999</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>276</v>
       </c>
@@ -32522,8 +32639,11 @@
         <f t="shared" si="3"/>
         <v>62.12638345405049</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="175">
+        <v>8.3137000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>277</v>
       </c>
@@ -32555,8 +32675,9 @@
         <f t="shared" si="3"/>
         <v>68.845274915625012</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="175"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>278</v>
       </c>
@@ -32588,8 +32709,9 @@
         <f t="shared" si="3"/>
         <v>115.62418929072</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>279</v>
       </c>
@@ -32621,8 +32743,9 @@
         <f t="shared" si="3"/>
         <v>128.97929511271349</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>280</v>
       </c>
@@ -32654,8 +32777,9 @@
         <f t="shared" si="3"/>
         <v>145.53250552843198</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>281</v>
       </c>
@@ -32687,8 +32811,9 @@
         <f t="shared" si="3"/>
         <v>72.832107652655992</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>282</v>
       </c>
@@ -32720,8 +32845,9 @@
         <f t="shared" si="3"/>
         <v>300.10879915579198</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>283</v>
       </c>
@@ -32753,8 +32879,9 @@
         <f t="shared" si="3"/>
         <v>115.55111160806401</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>284</v>
       </c>
@@ -32786,8 +32913,9 @@
         <f t="shared" si="3"/>
         <v>127.35695634082198</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>285</v>
       </c>
@@ -32819,8 +32947,9 @@
         <f t="shared" si="3"/>
         <v>88.727353370831992</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>286</v>
       </c>
@@ -32852,8 +32981,9 @@
         <f t="shared" si="3"/>
         <v>98.501068555824006</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>287</v>
       </c>
@@ -32885,8 +33015,9 @@
         <f t="shared" si="3"/>
         <v>162.10414468142397</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>323</v>
       </c>
@@ -32918,8 +33049,9 @@
         <f t="shared" si="3"/>
         <v>18.938993014656003</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>288</v>
       </c>
@@ -32951,8 +33083,11 @@
         <f t="shared" si="3"/>
         <v>255.68238391534797</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="175">
+        <v>34.215200000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>289</v>
       </c>
@@ -32984,8 +33119,9 @@
         <f t="shared" si="3"/>
         <v>19.3851174949965</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="175"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>290</v>
       </c>
@@ -33017,8 +33153,9 @@
         <f t="shared" si="3"/>
         <v>14.665314785062497</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="175"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>291</v>
       </c>
@@ -33050,8 +33187,9 @@
         <f t="shared" si="3"/>
         <v>48.591560523264</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>292</v>
       </c>
@@ -33083,8 +33221,9 @@
         <f t="shared" si="3"/>
         <v>78.38856075599999</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>324</v>
       </c>
@@ -33116,8 +33255,9 @@
         <f t="shared" si="3"/>
         <v>14.534541277424999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>293</v>
       </c>
@@ -33149,8 +33289,9 @@
         <f t="shared" si="3"/>
         <v>310.323901419675</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>294</v>
       </c>
@@ -33182,8 +33323,9 @@
         <f t="shared" si="3"/>
         <v>415.21839815511902</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="175"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>295</v>
       </c>
@@ -33215,8 +33357,9 @@
         <f t="shared" si="3"/>
         <v>229.477519387776</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>325</v>
       </c>
@@ -33248,8 +33391,9 @@
         <f t="shared" si="3"/>
         <v>18.938993014656003</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>296</v>
       </c>
@@ -33281,8 +33425,9 @@
         <f t="shared" si="3"/>
         <v>1357.7966696530077</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="175"/>
+    </row>
+    <row r="71" spans="1:10" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>553</v>
       </c>
@@ -33314,8 +33459,9 @@
         <f t="shared" si="3"/>
         <v>14.725844237168996</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>450</v>
       </c>
@@ -33347,12 +33493,13 @@
         <f t="shared" si="3"/>
         <v>348.97167941999993</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F73" s="179" t="s">
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="G73" s="179"/>
+      <c r="G73" s="187"/>
       <c r="H73" s="41">
         <f>SUM(H4:H72)</f>
         <v>6335.2156108951121</v>
@@ -33362,31 +33509,31 @@
         <v>13463.221743267075</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F74" s="179" t="s">
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="179"/>
-      <c r="H74" s="180">
+      <c r="G74" s="187"/>
+      <c r="H74" s="188">
         <f>H73+I73</f>
         <v>19798.437354162186</v>
       </c>
-      <c r="I74" s="181"/>
-    </row>
-    <row r="76" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A76" s="185" t="s">
+      <c r="I74" s="189"/>
+    </row>
+    <row r="76" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A76" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="185"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="185"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="185"/>
-      <c r="I76" s="185"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="191"/>
+      <c r="C76" s="191"/>
+      <c r="D76" s="191"/>
+      <c r="E76" s="191"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="191"/>
+      <c r="H76" s="191"/>
+      <c r="I76" s="191"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>19</v>
       </c>
@@ -33415,7 +33562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>123</v>
       </c>
@@ -33449,7 +33596,7 @@
         <v>291.26463974607998</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>206</v>
       </c>
@@ -33483,7 +33630,7 @@
         <v>19.559986991999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>169</v>
       </c>
@@ -36136,10 +36283,10 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F158" s="186" t="s">
+      <c r="F158" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="G158" s="186"/>
+      <c r="G158" s="192"/>
       <c r="H158" s="148">
         <f>SUM(H78:H157)</f>
         <v>5646.4769823865836</v>
@@ -36150,28 +36297,28 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F159" s="179" t="s">
+      <c r="F159" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="G159" s="179"/>
-      <c r="H159" s="180">
+      <c r="G159" s="187"/>
+      <c r="H159" s="188">
         <f>I158+H158</f>
         <v>17350.05826720711</v>
       </c>
-      <c r="I159" s="181"/>
+      <c r="I159" s="189"/>
     </row>
     <row r="161" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A161" s="173" t="s">
+      <c r="A161" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B161" s="173"/>
-      <c r="C161" s="173"/>
-      <c r="D161" s="173"/>
-      <c r="E161" s="173"/>
-      <c r="F161" s="173"/>
-      <c r="G161" s="173"/>
-      <c r="H161" s="173"/>
-      <c r="I161" s="173"/>
+      <c r="B161" s="179"/>
+      <c r="C161" s="179"/>
+      <c r="D161" s="179"/>
+      <c r="E161" s="179"/>
+      <c r="F161" s="179"/>
+      <c r="G161" s="179"/>
+      <c r="H161" s="179"/>
+      <c r="I161" s="179"/>
       <c r="J161" s="106"/>
       <c r="K161" s="106"/>
     </row>
@@ -36976,6 +37123,7 @@
         <f t="shared" si="18"/>
         <v>35.771411640568495</v>
       </c>
+      <c r="J184" s="176"/>
     </row>
     <row r="185" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
@@ -37010,6 +37158,7 @@
         <f t="shared" si="18"/>
         <v>18.368820521356497</v>
       </c>
+      <c r="J185" s="176"/>
     </row>
     <row r="186" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
@@ -38337,7 +38486,7 @@
         <v>130.36399973929795</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
         <v>57</v>
       </c>
@@ -38371,7 +38520,7 @@
         <v>130.62853586331897</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>308</v>
       </c>
@@ -38405,7 +38554,7 @@
         <v>370.42528670294399</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>72</v>
       </c>
@@ -38439,7 +38588,7 @@
         <v>92.629690265375999</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>75</v>
       </c>
@@ -38473,7 +38622,7 @@
         <v>91.631214162576001</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>76</v>
       </c>
@@ -38507,7 +38656,7 @@
         <v>80.016600228048006</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>317</v>
       </c>
@@ -38540,8 +38689,9 @@
         <f t="shared" si="24"/>
         <v>201.73345471316694</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J230" s="176"/>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>332</v>
       </c>
@@ -38575,7 +38725,7 @@
         <v>19.728117723599997</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="23" t="s">
         <v>28</v>
       </c>
@@ -38609,7 +38759,7 @@
         <v>2983.6713520264475</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>419</v>
       </c>
@@ -38643,7 +38793,7 @@
         <v>90.925057871999996</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>555</v>
       </c>
@@ -38677,7 +38827,7 @@
         <v>19.429206848999996</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>418</v>
       </c>
@@ -38711,7 +38861,7 @@
         <v>95.173892351999982</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>554</v>
       </c>
@@ -38745,11 +38895,11 @@
         <v>20.176484035499996</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F237" s="179" t="s">
+    <row r="237" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="G237" s="179"/>
+      <c r="G237" s="187"/>
       <c r="H237" s="41">
         <f>SUM(H163:H232)</f>
         <v>5262.10371996711</v>
@@ -38759,26 +38909,19 @@
         <v>11319.931684291781</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F238" s="179" t="s">
+    <row r="238" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F238" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="G238" s="179"/>
-      <c r="H238" s="180">
+      <c r="G238" s="187"/>
+      <c r="H238" s="188">
         <f>I237+H237</f>
         <v>16582.035404258892</v>
       </c>
-      <c r="I238" s="181"/>
+      <c r="I238" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N9"/>
     <mergeCell ref="F238:G238"/>
     <mergeCell ref="F237:G237"/>
     <mergeCell ref="F73:G73"/>
@@ -38795,6 +38938,13 @@
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38828,29 +38978,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
       <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:17" s="119" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
       <c r="I2" s="103"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
@@ -38880,14 +39030,14 @@
       <c r="H3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="188" t="s">
+      <c r="L3" s="193" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
     </row>
     <row r="4" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
@@ -38916,9 +39066,9 @@
         <f>C4*E4</f>
         <v>11.327999999999999</v>
       </c>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
       <c r="O4" s="134" t="s">
         <v>541</v>
       </c>
@@ -38956,11 +39106,11 @@
         <f t="shared" ref="H5:H44" si="1">C5*E5</f>
         <v>365.50400000000002</v>
       </c>
-      <c r="L5" s="190" t="s">
+      <c r="L5" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="82">
         <f>G45</f>
         <v>5447.2492799999991</v>
@@ -39001,11 +39151,11 @@
         <f t="shared" si="1"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="L6" s="190" t="s">
+      <c r="L6" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
       <c r="O6" s="82">
         <f>G90</f>
         <v>3484.8253440000008</v>
@@ -39046,11 +39196,11 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L7" s="190" t="s">
+      <c r="L7" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
       <c r="O7" s="82">
         <f>G128</f>
         <v>2187.573695999999</v>
@@ -39091,20 +39241,20 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L8" s="178" t="s">
+      <c r="L8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="182">
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="185">
         <f>SUM(O5:O7)</f>
         <v>11119.64832</v>
       </c>
-      <c r="P8" s="182">
+      <c r="P8" s="185">
         <f>SUM(P5:P7)</f>
         <v>5615.9839999999995</v>
       </c>
-      <c r="Q8" s="182">
+      <c r="Q8" s="185">
         <f>Q5+Q6+Q7</f>
         <v>16735.632319999997</v>
       </c>
@@ -39136,12 +39286,12 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="183"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
     </row>
     <row r="10" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
@@ -40124,10 +40274,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="187" t="s">
+      <c r="E45" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="F45" s="187"/>
+      <c r="F45" s="196"/>
       <c r="G45" s="124">
         <f>SUM(G4:G44)</f>
         <v>5447.2492799999991</v>
@@ -40138,15 +40288,15 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="187" t="s">
+      <c r="E46" s="196" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187">
+      <c r="F46" s="196"/>
+      <c r="G46" s="196">
         <f>G45+H45</f>
         <v>8198.3852799999986</v>
       </c>
-      <c r="H46" s="187"/>
+      <c r="H46" s="196"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="49"/>
@@ -40155,16 +40305,16 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="185" t="s">
+      <c r="A48" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="185"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41316,10 +41466,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="187" t="s">
+      <c r="E90" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="F90" s="187"/>
+      <c r="F90" s="196"/>
       <c r="G90" s="72">
         <f>SUM(G50:G89)</f>
         <v>3484.8253440000008</v>
@@ -41330,15 +41480,15 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="187" t="s">
+      <c r="E91" s="196" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="187"/>
-      <c r="G91" s="187">
+      <c r="F91" s="196"/>
+      <c r="G91" s="196">
         <f>G90+H90</f>
         <v>5244.8381440000012</v>
       </c>
-      <c r="H91" s="187"/>
+      <c r="H91" s="196"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E92" s="49"/>
@@ -41347,16 +41497,16 @@
       <c r="H92" s="49"/>
     </row>
     <row r="93" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="173" t="s">
+      <c r="A93" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="173"/>
-      <c r="C93" s="173"/>
-      <c r="D93" s="173"/>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
-      <c r="H93" s="173"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="179"/>
+      <c r="E93" s="179"/>
+      <c r="F93" s="179"/>
+      <c r="G93" s="179"/>
+      <c r="H93" s="179"/>
       <c r="I93" s="106"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -42314,10 +42464,10 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E128" s="187" t="s">
+      <c r="E128" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="F128" s="187"/>
+      <c r="F128" s="196"/>
       <c r="G128" s="72">
         <f>SUM(G95:G127)</f>
         <v>2187.573695999999</v>
@@ -42328,27 +42478,18 @@
       </c>
     </row>
     <row r="129" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E129" s="187" t="s">
+      <c r="E129" s="196" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="187"/>
-      <c r="G129" s="187">
+      <c r="F129" s="196"/>
+      <c r="G129" s="196">
         <f>G128+H128</f>
         <v>3292.408895999999</v>
       </c>
-      <c r="H129" s="187"/>
+      <c r="H129" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="E128:F128"/>
@@ -42362,6 +42503,15 @@
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -42391,48 +42541,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="119" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="203" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="L3" s="175" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="L3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -42460,14 +42610,14 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176" t="s">
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182" t="s">
         <v>430</v>
       </c>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -42496,16 +42646,16 @@
         <f>B5*C5*G5</f>
         <v>1159.3501026231174</v>
       </c>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177">
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183">
         <v>0</v>
       </c>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
@@ -42534,17 +42684,17 @@
         <f t="shared" ref="H6:H46" si="1">B6*C6*G6</f>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L6" s="177" t="s">
+      <c r="L6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177">
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183">
         <f>I87</f>
         <v>0</v>
       </c>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
@@ -42573,17 +42723,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L7" s="177" t="s">
+      <c r="L7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177">
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183">
         <f>H49</f>
         <v>33330.762702411113</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
@@ -42612,17 +42762,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L8" s="178" t="s">
+      <c r="L8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="192">
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="197">
         <f>O5+O6+O7</f>
         <v>33330.762702411113</v>
       </c>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="194"/>
+      <c r="P8" s="198"/>
+      <c r="Q8" s="199"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
@@ -42651,12 +42801,12 @@
         <f t="shared" si="1"/>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="195"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="197"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="202"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
@@ -44080,6 +44230,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="O8:Q9"/>
     <mergeCell ref="L4:N4"/>
@@ -44088,12 +44244,6 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -44119,28 +44269,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="132"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:16" s="119" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -44165,14 +44315,14 @@
       <c r="G3" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -44198,14 +44348,14 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>331.42823999999996</v>
       </c>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176" t="s">
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81"/>
@@ -44229,17 +44379,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177">
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183">
         <f>G90</f>
         <v>18554.539067999998</v>
       </c>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
@@ -44265,17 +44415,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>41.530319999999996</v>
       </c>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177">
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183">
         <f>G198</f>
         <v>19890.591177600007</v>
       </c>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
@@ -44301,17 +44451,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>130.2912</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177">
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183">
         <f>G296</f>
         <v>17107.397424000003</v>
       </c>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="81"/>
@@ -44335,17 +44485,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K8" s="178" t="s">
+      <c r="K8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="192">
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="197">
         <f>N5+N6+N7</f>
         <v>55552.527669600007</v>
       </c>
-      <c r="O8" s="193"/>
-      <c r="P8" s="194"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="199"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
@@ -44371,12 +44521,12 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>397.11671999999999</v>
       </c>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="195"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="197"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="202"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="81"/>
@@ -46328,15 +46478,15 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="172" t="s">
+      <c r="A93" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="172"/>
-      <c r="C93" s="172"/>
-      <c r="D93" s="172"/>
-      <c r="E93" s="172"/>
-      <c r="F93" s="172"/>
-      <c r="G93" s="172"/>
+      <c r="B93" s="178"/>
+      <c r="C93" s="178"/>
+      <c r="D93" s="178"/>
+      <c r="E93" s="178"/>
+      <c r="F93" s="178"/>
+      <c r="G93" s="178"/>
       <c r="H93" s="103"/>
       <c r="I93" s="103"/>
     </row>
@@ -48878,15 +49028,15 @@
       </c>
     </row>
     <row r="200" spans="1:9" s="119" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A200" s="173" t="s">
+      <c r="A200" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="173"/>
-      <c r="C200" s="173"/>
-      <c r="D200" s="173"/>
-      <c r="E200" s="173"/>
-      <c r="F200" s="173"/>
-      <c r="G200" s="173"/>
+      <c r="B200" s="179"/>
+      <c r="C200" s="179"/>
+      <c r="D200" s="179"/>
+      <c r="E200" s="179"/>
+      <c r="F200" s="179"/>
+      <c r="G200" s="179"/>
       <c r="H200" s="106"/>
       <c r="I200" s="106"/>
     </row>
@@ -51239,10 +51389,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51260,32 +51410,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="104"/>
       <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
     </row>
@@ -51317,14 +51467,14 @@
       <c r="I3" s="93" t="s">
         <v>416</v>
       </c>
-      <c r="O3" s="188" t="s">
+      <c r="O3" s="193" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="193"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -51358,9 +51508,9 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J4" s="89"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
       <c r="R4" s="134" t="s">
         <v>541</v>
       </c>
@@ -51403,22 +51553,22 @@
         <v>1338.7939199999998</v>
       </c>
       <c r="J5" s="89"/>
-      <c r="O5" s="190" t="s">
+      <c r="O5" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="190"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
       <c r="R5" s="82">
-        <f>H41</f>
-        <v>9262.7920000000013</v>
+        <f>H47</f>
+        <v>9870.7840000000015</v>
       </c>
       <c r="S5" s="82">
-        <f>I41</f>
-        <v>18303.154668000006</v>
+        <f>I47</f>
+        <v>19550.09056500001</v>
       </c>
       <c r="T5" s="82">
         <f>R5+S5</f>
-        <v>27565.946668000008</v>
+        <v>29420.874565000013</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51453,17 +51603,17 @@
         <v>1158.73704</v>
       </c>
       <c r="J6" s="89"/>
-      <c r="O6" s="190" t="s">
+      <c r="O6" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="190"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
       <c r="R6" s="82">
-        <f>H90</f>
+        <f>H96</f>
         <v>20168.763999999999</v>
       </c>
       <c r="S6" s="82">
-        <f>I90</f>
+        <f>I96</f>
         <v>39472.195050000002</v>
       </c>
       <c r="T6" s="82">
@@ -51503,17 +51653,17 @@
         <v>217.263195</v>
       </c>
       <c r="J7" s="89"/>
-      <c r="O7" s="190" t="s">
+      <c r="O7" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="190"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="195"/>
       <c r="R7" s="82">
-        <f>H127</f>
+        <f>H133</f>
         <v>13017.312</v>
       </c>
       <c r="S7" s="82">
-        <f>I127</f>
+        <f>I133</f>
         <v>25564.24098000001</v>
       </c>
       <c r="T7" s="82">
@@ -51553,22 +51703,22 @@
         <v>463.49481599999996</v>
       </c>
       <c r="J8" s="89"/>
-      <c r="O8" s="178" t="s">
+      <c r="O8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="182">
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="185">
         <f>SUM(R5:R7)</f>
-        <v>42448.868000000002</v>
-      </c>
-      <c r="S8" s="182">
+        <v>43056.86</v>
+      </c>
+      <c r="S8" s="185">
         <f>SUM(S5:S7)</f>
-        <v>83339.590698000015</v>
-      </c>
-      <c r="T8" s="182">
+        <v>84586.526595000032</v>
+      </c>
+      <c r="T8" s="185">
         <f>T5+T6+T7</f>
-        <v>125788.45869800002</v>
+        <v>127643.38659500002</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51603,12 +51753,12 @@
         <v>144.84213</v>
       </c>
       <c r="J9" s="89"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="94" t="s">
@@ -52369,7 +52519,7 @@
       </c>
       <c r="J32" s="89"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="94" t="s">
         <v>453</v>
       </c>
@@ -52402,7 +52552,7 @@
       </c>
       <c r="J33" s="89"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="94" t="s">
         <v>35</v>
       </c>
@@ -52435,7 +52585,7 @@
       </c>
       <c r="J34" s="89"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
         <v>459</v>
       </c>
@@ -52468,7 +52618,7 @@
       </c>
       <c r="J35" s="89"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="s">
         <v>492</v>
       </c>
@@ -52501,7 +52651,7 @@
       </c>
       <c r="J36" s="89"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="94" t="s">
         <v>115</v>
       </c>
@@ -52534,7 +52684,7 @@
       </c>
       <c r="J37" s="89"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94" t="s">
         <v>385</v>
       </c>
@@ -52567,7 +52717,7 @@
       </c>
       <c r="J38" s="89"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="94" t="s">
         <v>493</v>
       </c>
@@ -52600,7 +52750,7 @@
       </c>
       <c r="J39" s="89"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="97" t="s">
         <v>30</v>
       </c>
@@ -52632,310 +52782,337 @@
         <v>4244.8881599999995</v>
       </c>
       <c r="J40" s="89"/>
-    </row>
-    <row r="41" spans="1:11" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="120"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="129" t="s">
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="174" t="s">
+        <v>556</v>
+      </c>
+      <c r="B41" s="98">
+        <v>1</v>
+      </c>
+      <c r="C41" s="97">
+        <v>2.5</v>
+      </c>
+      <c r="D41" s="98">
+        <v>34.5</v>
+      </c>
+      <c r="E41" s="98">
+        <v>24</v>
+      </c>
+      <c r="F41" s="98">
+        <v>1.8136751999999999E-2</v>
+      </c>
+      <c r="G41" s="98">
+        <v>9.2932350000000004E-3</v>
+      </c>
+      <c r="H41" s="169">
+        <f t="shared" ref="H41:H46" si="2">ABS(1.232*C41*(D41-E41))</f>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I41" s="170">
+        <f t="shared" ref="I41:I46" si="3">ABS(3000*C41*(F41-G41))</f>
+        <v>66.326377499999992</v>
+      </c>
+      <c r="J41" s="89"/>
+      <c r="K41" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="L41" s="119">
+        <v>7.8174999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="174" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" s="98">
+        <v>1</v>
+      </c>
+      <c r="C42" s="97">
+        <v>2.5</v>
+      </c>
+      <c r="D42" s="98">
+        <v>34.5</v>
+      </c>
+      <c r="E42" s="98">
+        <v>24</v>
+      </c>
+      <c r="F42" s="98">
+        <v>1.8136751999999999E-2</v>
+      </c>
+      <c r="G42" s="98">
+        <v>9.2932350000000004E-3</v>
+      </c>
+      <c r="H42" s="169">
+        <f t="shared" si="2"/>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I42" s="170">
+        <f t="shared" si="3"/>
+        <v>66.326377499999992</v>
+      </c>
+      <c r="J42" s="89"/>
+      <c r="K42" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="L42" s="119">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="174" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43" s="98">
+        <v>1</v>
+      </c>
+      <c r="C43" s="97">
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="98">
+        <v>34.5</v>
+      </c>
+      <c r="E43" s="98">
+        <v>24</v>
+      </c>
+      <c r="F43" s="98">
+        <v>1.8136751999999999E-2</v>
+      </c>
+      <c r="G43" s="98">
+        <v>9.2932350000000004E-3</v>
+      </c>
+      <c r="H43" s="169">
+        <f t="shared" si="2"/>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I43" s="170">
+        <f t="shared" si="3"/>
+        <v>66.326377499999992</v>
+      </c>
+      <c r="J43" s="89"/>
+      <c r="K43" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="L43" s="119">
+        <v>3.9771999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="98">
+        <v>2</v>
+      </c>
+      <c r="C44" s="97">
+        <v>5</v>
+      </c>
+      <c r="D44" s="98">
+        <v>34.5</v>
+      </c>
+      <c r="E44" s="98">
+        <v>24</v>
+      </c>
+      <c r="F44" s="98">
+        <v>1.8136751999999999E-2</v>
+      </c>
+      <c r="G44" s="98">
+        <v>9.2932350000000004E-3</v>
+      </c>
+      <c r="H44" s="169">
+        <f t="shared" si="2"/>
+        <v>64.680000000000007</v>
+      </c>
+      <c r="I44" s="170">
+        <f t="shared" si="3"/>
+        <v>132.65275499999998</v>
+      </c>
+      <c r="J44" s="89"/>
+      <c r="K44" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="L44" s="119">
+        <v>5.5202999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="171" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="95">
+        <v>4</v>
+      </c>
+      <c r="C45" s="94">
+        <v>32</v>
+      </c>
+      <c r="D45" s="98">
+        <v>34.5</v>
+      </c>
+      <c r="E45" s="98">
+        <v>24</v>
+      </c>
+      <c r="F45" s="98">
+        <v>1.8136751999999999E-2</v>
+      </c>
+      <c r="G45" s="98">
+        <v>9.2932350000000004E-3</v>
+      </c>
+      <c r="H45" s="172">
+        <f t="shared" si="2"/>
+        <v>413.952</v>
+      </c>
+      <c r="I45" s="173">
+        <f t="shared" si="3"/>
+        <v>848.97763199999986</v>
+      </c>
+      <c r="J45" s="89"/>
+      <c r="K45" s="125" t="s">
+        <v>557</v>
+      </c>
+      <c r="L45" s="119">
+        <v>34.215200000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="174" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46" s="98">
+        <v>1</v>
+      </c>
+      <c r="C46" s="97">
+        <v>2.5</v>
+      </c>
+      <c r="D46" s="98">
+        <v>34.5</v>
+      </c>
+      <c r="E46" s="98">
+        <v>24</v>
+      </c>
+      <c r="F46" s="98">
+        <v>1.8136751999999999E-2</v>
+      </c>
+      <c r="G46" s="98">
+        <v>9.2932350000000004E-3</v>
+      </c>
+      <c r="H46" s="169">
+        <f t="shared" si="2"/>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I46" s="170">
+        <f t="shared" si="3"/>
+        <v>66.326377499999992</v>
+      </c>
+      <c r="J46" s="89"/>
+      <c r="K46" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="L46" s="119">
+        <v>8.3137000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="120"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H47" s="41">
         <f>SUM(Table17[Qs (W)])</f>
-        <v>9262.7920000000013</v>
-      </c>
-      <c r="I41" s="129">
+        <v>9870.7840000000015</v>
+      </c>
+      <c r="I47" s="129">
         <f>SUM(Table17[Qw (W)])</f>
-        <v>18303.154668000006</v>
-      </c>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="198" t="s">
+        <v>19550.09056500001</v>
+      </c>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="198"/>
-      <c r="I42" s="129">
-        <f>H41+I41</f>
-        <v>27565.946668000008</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-    </row>
-    <row r="44" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="172" t="s">
+      <c r="H48" s="204"/>
+      <c r="I48" s="129">
+        <f>H47+I47</f>
+        <v>29420.874565000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+    </row>
+    <row r="50" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="100" t="s">
+      <c r="B50" s="178"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B51" s="101" t="s">
         <v>496</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C51" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D51" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E51" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="101" t="s">
+      <c r="F51" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G51" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="101" t="s">
+      <c r="H51" s="101" t="s">
         <v>497</v>
       </c>
-      <c r="I45" s="102" t="s">
+      <c r="I51" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="J45" s="91"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="94" t="s">
+      <c r="J51" s="91"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="82">
+      <c r="B52" s="82">
         <v>5</v>
       </c>
-      <c r="C46" s="95">
-        <f>B46*References!AT4</f>
+      <c r="C52" s="95">
+        <f>B52*References!AT4</f>
         <v>65</v>
-      </c>
-      <c r="D46" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E46" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F46" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G46" s="95">
-        <f>_xlfn.IFS(E46=22.5,0.00848061,E46=22,0.00821976,E46=24,0.00929323)</f>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H46" s="95">
-        <f t="shared" ref="H46:H89" si="2">ABS(1.232*C46*(D46-E46))</f>
-        <v>960.96</v>
-      </c>
-      <c r="I46" s="96">
-        <f t="shared" ref="I46:I89" si="3">ABS(3000*C46*(F46-G46))</f>
-        <v>1882.9473</v>
-      </c>
-      <c r="J46" s="91"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="82">
-        <v>5</v>
-      </c>
-      <c r="C47" s="95">
-        <f>B47*References!AT5</f>
-        <v>65</v>
-      </c>
-      <c r="D47" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E47" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F47" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G47" s="95">
-        <f t="shared" ref="G47:G89" si="4">_xlfn.IFS(E47=22.5,0.00848061,E47=22,0.00821976,E47=24,0.00929323)</f>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H47" s="95">
-        <f t="shared" si="2"/>
-        <v>960.96</v>
-      </c>
-      <c r="I47" s="96">
-        <f t="shared" si="3"/>
-        <v>1882.9473</v>
-      </c>
-      <c r="J47" s="91"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="82">
-        <v>5</v>
-      </c>
-      <c r="C48" s="95">
-        <f>B48*References!AT6</f>
-        <v>65</v>
-      </c>
-      <c r="D48" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E48" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F48" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G48" s="95">
-        <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H48" s="95">
-        <f t="shared" si="2"/>
-        <v>960.96</v>
-      </c>
-      <c r="I48" s="96">
-        <f t="shared" si="3"/>
-        <v>1882.9473</v>
-      </c>
-      <c r="J48" s="91"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="82">
-        <v>5</v>
-      </c>
-      <c r="C49" s="95">
-        <f>B49*References!AT7</f>
-        <v>65</v>
-      </c>
-      <c r="D49" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E49" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F49" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G49" s="95">
-        <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H49" s="95">
-        <f t="shared" si="2"/>
-        <v>960.96</v>
-      </c>
-      <c r="I49" s="96">
-        <f t="shared" si="3"/>
-        <v>1882.9473</v>
-      </c>
-      <c r="J49" s="91"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="82">
-        <v>2</v>
-      </c>
-      <c r="C50" s="95">
-        <f>B50*References!AT8</f>
-        <v>26</v>
-      </c>
-      <c r="D50" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E50" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F50" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G50" s="95">
-        <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H50" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I50" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
-      </c>
-      <c r="J50" s="91"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" s="82">
-        <v>2</v>
-      </c>
-      <c r="C51" s="95">
-        <f>B51*References!AT9</f>
-        <v>26</v>
-      </c>
-      <c r="D51" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E51" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F51" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G51" s="95">
-        <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H51" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I51" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
-      </c>
-      <c r="J51" s="91"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="82">
-        <v>2</v>
-      </c>
-      <c r="C52" s="95">
-        <f>B52*References!AT10</f>
-        <v>26</v>
       </c>
       <c r="D52" s="95">
         <v>34.5</v>
@@ -52947,29 +53124,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G52" s="95">
-        <f t="shared" si="4"/>
+        <f>_xlfn.IFS(E52=22.5,0.00848061,E52=22,0.00821976,E52=24,0.00929323)</f>
         <v>8.4806099999999995E-3</v>
       </c>
       <c r="H52" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <f t="shared" ref="H52:H95" si="4">ABS(1.232*C52*(D52-E52))</f>
+        <v>960.96</v>
       </c>
       <c r="I52" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" ref="I52:I95" si="5">ABS(3000*C52*(F52-G52))</f>
+        <v>1882.9473</v>
       </c>
       <c r="J52" s="91"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="94" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B53" s="82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="95">
-        <f>B53*References!AT11</f>
-        <v>17.5</v>
+        <f>B53*References!AT5</f>
+        <v>65</v>
       </c>
       <c r="D53" s="95">
         <v>34.5</v>
@@ -52981,29 +53158,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G53" s="95">
+        <f t="shared" ref="G53:G95" si="6">_xlfn.IFS(E53=22.5,0.00848061,E53=22,0.00821976,E53=24,0.00929323)</f>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H53" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H53" s="95">
-        <f t="shared" si="2"/>
-        <v>258.71999999999997</v>
+        <v>960.96</v>
       </c>
       <c r="I53" s="96">
-        <f t="shared" si="3"/>
-        <v>506.94735000000003</v>
+        <f t="shared" si="5"/>
+        <v>1882.9473</v>
       </c>
       <c r="J53" s="91"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="94" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B54" s="82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" s="95">
-        <f>B54*References!AT12</f>
-        <v>16</v>
+        <f>B54*References!AT6</f>
+        <v>65</v>
       </c>
       <c r="D54" s="95">
         <v>34.5</v>
@@ -53015,29 +53192,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G54" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H54" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H54" s="95">
-        <f t="shared" si="2"/>
-        <v>236.54399999999998</v>
+        <v>960.96</v>
       </c>
       <c r="I54" s="96">
-        <f t="shared" si="3"/>
-        <v>463.49472000000003</v>
+        <f t="shared" si="5"/>
+        <v>1882.9473</v>
       </c>
       <c r="J54" s="91"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="94" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B55" s="82">
         <v>5</v>
       </c>
       <c r="C55" s="95">
-        <f>B55*References!AT13</f>
-        <v>40</v>
+        <f>B55*References!AT7</f>
+        <v>65</v>
       </c>
       <c r="D55" s="95">
         <v>34.5</v>
@@ -53049,96 +53226,96 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G55" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H55" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H55" s="95">
-        <f t="shared" si="2"/>
-        <v>591.36</v>
+        <v>960.96</v>
       </c>
       <c r="I55" s="96">
-        <f t="shared" si="3"/>
-        <v>1158.7368000000001</v>
+        <f t="shared" si="5"/>
+        <v>1882.9473</v>
       </c>
       <c r="J55" s="91"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="94" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B56" s="82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="95">
-        <f>B56*References!AT14</f>
-        <v>2.5</v>
+        <f>B56*References!AT8</f>
+        <v>26</v>
       </c>
       <c r="D56" s="95">
         <v>34.5</v>
       </c>
       <c r="E56" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F56" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G56" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H56" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H56" s="95">
-        <f t="shared" si="2"/>
-        <v>32.340000000000003</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I56" s="96">
-        <f t="shared" si="3"/>
-        <v>66.326400000000007</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J56" s="91"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B57" s="82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="95">
-        <f>B57*References!AT15</f>
-        <v>2.5</v>
+        <f>B57*References!AT9</f>
+        <v>26</v>
       </c>
       <c r="D57" s="95">
         <v>34.5</v>
       </c>
       <c r="E57" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F57" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G57" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H57" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H57" s="95">
-        <f t="shared" si="2"/>
-        <v>32.340000000000003</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I57" s="96">
-        <f t="shared" si="3"/>
-        <v>66.326400000000007</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J57" s="91"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B58" s="82">
         <v>2</v>
       </c>
       <c r="C58" s="95">
-        <f>B58*References!AT16</f>
+        <f>B58*References!AT10</f>
         <v>26</v>
       </c>
       <c r="D58" s="95">
@@ -53151,29 +53328,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G58" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H58" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H58" s="95">
-        <f t="shared" si="2"/>
         <v>384.38399999999996</v>
       </c>
       <c r="I58" s="96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>753.17892000000006</v>
       </c>
       <c r="J58" s="91"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="94" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B59" s="82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C59" s="95">
-        <f>B59*References!AT17</f>
-        <v>26</v>
+        <f>B59*References!AT11</f>
+        <v>17.5</v>
       </c>
       <c r="D59" s="95">
         <v>34.5</v>
@@ -53185,29 +53362,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G59" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H59" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H59" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <v>258.71999999999997</v>
       </c>
       <c r="I59" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" si="5"/>
+        <v>506.94735000000003</v>
       </c>
       <c r="J59" s="91"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="94" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B60" s="82">
         <v>2</v>
       </c>
       <c r="C60" s="95">
-        <f>B60*References!AT18</f>
-        <v>26</v>
+        <f>B60*References!AT12</f>
+        <v>16</v>
       </c>
       <c r="D60" s="95">
         <v>34.5</v>
@@ -53219,29 +53396,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G60" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H60" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H60" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <v>236.54399999999998</v>
       </c>
       <c r="I60" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" si="5"/>
+        <v>463.49472000000003</v>
       </c>
       <c r="J60" s="91"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="94" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B61" s="82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C61" s="95">
-        <f>B61*References!AT19</f>
-        <v>26</v>
+        <f>B61*References!AT13</f>
+        <v>40</v>
       </c>
       <c r="D61" s="95">
         <v>34.5</v>
@@ -53253,97 +53430,97 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G61" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H61" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H61" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <v>591.36</v>
       </c>
       <c r="I61" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" si="5"/>
+        <v>1158.7368000000001</v>
       </c>
       <c r="J61" s="91"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="94" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B62" s="82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="95">
-        <f>B62*References!AT20</f>
-        <v>26</v>
+        <f>B62*References!AT14</f>
+        <v>2.5</v>
       </c>
       <c r="D62" s="95">
         <v>34.5</v>
       </c>
       <c r="E62" s="95">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="F62" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G62" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H62" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H62" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="I62" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" si="5"/>
+        <v>66.326400000000007</v>
       </c>
       <c r="J62" s="91"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="94" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B63" s="82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="95">
-        <f>B63*References!AT21</f>
-        <v>7.5</v>
+        <f>B63*References!AT15</f>
+        <v>2.5</v>
       </c>
       <c r="D63" s="95">
         <v>34.5</v>
       </c>
       <c r="E63" s="95">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="F63" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G63" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H63" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H63" s="95">
-        <f t="shared" si="2"/>
-        <v>110.88</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="I63" s="96">
-        <f t="shared" si="3"/>
-        <v>217.26315000000002</v>
+        <f t="shared" si="5"/>
+        <v>66.326400000000007</v>
       </c>
       <c r="J63" s="91"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B64" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="95">
-        <f>B64*References!AT22</f>
-        <v>39</v>
+        <f>B64*References!AT16</f>
+        <v>26</v>
       </c>
       <c r="D64" s="95">
         <v>34.5</v>
@@ -53355,29 +53532,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G64" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H64" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H64" s="95">
-        <f t="shared" si="2"/>
-        <v>576.57600000000002</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I64" s="96">
-        <f t="shared" si="3"/>
-        <v>1129.76838</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J64" s="91"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B65" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="95">
-        <f>B65*References!AT23</f>
-        <v>39</v>
+        <f>B65*References!AT17</f>
+        <v>26</v>
       </c>
       <c r="D65" s="95">
         <v>34.5</v>
@@ -53389,28 +53566,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G65" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H65" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H65" s="95">
-        <f t="shared" si="2"/>
-        <v>576.57600000000002</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I65" s="96">
-        <f t="shared" si="3"/>
-        <v>1129.76838</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J65" s="91"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="94" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B66" s="82">
         <v>2</v>
       </c>
       <c r="C66" s="95">
-        <f>B66*References!AT24</f>
+        <f>B66*References!AT18</f>
         <v>26</v>
       </c>
       <c r="D66" s="95">
@@ -53423,29 +53600,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G66" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H66" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H66" s="95">
-        <f t="shared" si="2"/>
         <v>384.38399999999996</v>
       </c>
       <c r="I66" s="96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>753.17892000000006</v>
       </c>
       <c r="J66" s="91"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="94" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B67" s="82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C67" s="95">
-        <f>B67*References!AT25</f>
-        <v>104</v>
+        <f>B67*References!AT19</f>
+        <v>26</v>
       </c>
       <c r="D67" s="95">
         <v>34.5</v>
@@ -53457,29 +53634,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G67" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H67" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H67" s="95">
-        <f t="shared" si="2"/>
-        <v>1537.5359999999998</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I67" s="96">
-        <f t="shared" si="3"/>
-        <v>3012.7156800000002</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J67" s="91"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="94" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B68" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="95">
-        <f>B68*References!AT26</f>
-        <v>39</v>
+        <f>B68*References!AT20</f>
+        <v>26</v>
       </c>
       <c r="D68" s="95">
         <v>34.5</v>
@@ -53491,29 +53668,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G68" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H68" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H68" s="95">
-        <f t="shared" si="2"/>
-        <v>576.57600000000002</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I68" s="96">
-        <f t="shared" si="3"/>
-        <v>1129.76838</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J68" s="91"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="94" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="B69" s="82">
         <v>3</v>
       </c>
       <c r="C69" s="95">
-        <f>B69*References!AT27</f>
-        <v>39</v>
+        <f>B69*References!AT21</f>
+        <v>7.5</v>
       </c>
       <c r="D69" s="95">
         <v>34.5</v>
@@ -53525,29 +53702,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G69" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H69" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H69" s="95">
-        <f t="shared" si="2"/>
-        <v>576.57600000000002</v>
+        <v>110.88</v>
       </c>
       <c r="I69" s="96">
-        <f t="shared" si="3"/>
-        <v>1129.76838</v>
+        <f t="shared" si="5"/>
+        <v>217.26315000000002</v>
       </c>
       <c r="J69" s="91"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="94" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B70" s="82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="95">
-        <f>B70*References!AT28</f>
-        <v>26</v>
+        <f>B70*References!AT22</f>
+        <v>39</v>
       </c>
       <c r="D70" s="95">
         <v>34.5</v>
@@ -53559,29 +53736,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G70" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H70" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H70" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <v>576.57600000000002</v>
       </c>
       <c r="I70" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" si="5"/>
+        <v>1129.76838</v>
       </c>
       <c r="J70" s="91"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="94" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B71" s="82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="95">
-        <f>B71*References!AT29</f>
-        <v>26</v>
+        <f>B71*References!AT23</f>
+        <v>39</v>
       </c>
       <c r="D71" s="95">
         <v>34.5</v>
@@ -53593,29 +53770,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G71" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H71" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H71" s="95">
-        <f t="shared" si="2"/>
-        <v>384.38399999999996</v>
+        <v>576.57600000000002</v>
       </c>
       <c r="I71" s="96">
-        <f t="shared" si="3"/>
-        <v>753.17892000000006</v>
+        <f t="shared" si="5"/>
+        <v>1129.76838</v>
       </c>
       <c r="J71" s="91"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="94" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="B72" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" s="95">
-        <f>B72*References!AT30</f>
-        <v>12.5</v>
+        <f>B72*References!AT24</f>
+        <v>26</v>
       </c>
       <c r="D72" s="95">
         <v>34.5</v>
@@ -53627,97 +53804,97 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G72" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H72" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H72" s="95">
-        <f t="shared" si="2"/>
-        <v>184.8</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I72" s="96">
-        <f t="shared" si="3"/>
-        <v>362.10525000000001</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J72" s="91"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="94" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B73" s="82">
         <v>8</v>
       </c>
       <c r="C73" s="95">
-        <f>B73*References!AT31</f>
-        <v>64</v>
+        <f>B73*References!AT25</f>
+        <v>104</v>
       </c>
       <c r="D73" s="95">
         <v>34.5</v>
       </c>
       <c r="E73" s="95">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="F73" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G73" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H73" s="95">
         <f t="shared" si="4"/>
-        <v>8.2197599999999996E-3</v>
-      </c>
-      <c r="H73" s="95">
-        <f t="shared" si="2"/>
-        <v>985.6</v>
+        <v>1537.5359999999998</v>
       </c>
       <c r="I73" s="96">
-        <f t="shared" si="3"/>
-        <v>1904.0620800000002</v>
+        <f t="shared" si="5"/>
+        <v>3012.7156800000002</v>
       </c>
       <c r="J73" s="91"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="94" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B74" s="82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" s="95">
-        <f>B74*References!AT32</f>
-        <v>2.5</v>
+        <f>B74*References!AT26</f>
+        <v>39</v>
       </c>
       <c r="D74" s="95">
         <v>34.5</v>
       </c>
       <c r="E74" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F74" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G74" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H74" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H74" s="95">
-        <f t="shared" si="2"/>
-        <v>32.340000000000003</v>
+        <v>576.57600000000002</v>
       </c>
       <c r="I74" s="96">
-        <f t="shared" si="3"/>
-        <v>66.326400000000007</v>
+        <f t="shared" si="5"/>
+        <v>1129.76838</v>
       </c>
       <c r="J74" s="91"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="94" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B75" s="82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C75" s="95">
-        <f>B75*References!AT33</f>
-        <v>48</v>
+        <f>B75*References!AT27</f>
+        <v>39</v>
       </c>
       <c r="D75" s="95">
         <v>34.5</v>
@@ -53729,29 +53906,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G75" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H75" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H75" s="95">
-        <f t="shared" si="2"/>
-        <v>709.63199999999995</v>
+        <v>576.57600000000002</v>
       </c>
       <c r="I75" s="96">
-        <f t="shared" si="3"/>
-        <v>1390.48416</v>
+        <f t="shared" si="5"/>
+        <v>1129.76838</v>
       </c>
       <c r="J75" s="91"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="94" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B76" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="95">
-        <f>B76*References!AT34</f>
-        <v>10</v>
+        <f>B76*References!AT28</f>
+        <v>26</v>
       </c>
       <c r="D76" s="95">
         <v>34.5</v>
@@ -53763,29 +53940,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G76" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H76" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H76" s="95">
-        <f t="shared" si="2"/>
-        <v>147.84</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I76" s="96">
-        <f t="shared" si="3"/>
-        <v>289.68420000000003</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J76" s="91"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="94" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B77" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="95">
-        <f>B77*References!AT35</f>
-        <v>10</v>
+        <f>B77*References!AT29</f>
+        <v>26</v>
       </c>
       <c r="D77" s="95">
         <v>34.5</v>
@@ -53797,29 +53974,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G77" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H77" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H77" s="95">
-        <f t="shared" si="2"/>
-        <v>147.84</v>
+        <v>384.38399999999996</v>
       </c>
       <c r="I77" s="96">
-        <f t="shared" si="3"/>
-        <v>289.68420000000003</v>
+        <f t="shared" si="5"/>
+        <v>753.17892000000006</v>
       </c>
       <c r="J77" s="91"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="B78" s="82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78" s="95">
-        <f>B78*References!AT36</f>
-        <v>5</v>
+        <f>B78*References!AT30</f>
+        <v>12.5</v>
       </c>
       <c r="D78" s="95">
         <v>34.5</v>
@@ -53831,29 +54008,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G78" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H78" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H78" s="95">
-        <f t="shared" si="2"/>
-        <v>73.92</v>
+        <v>184.8</v>
       </c>
       <c r="I78" s="96">
-        <f t="shared" si="3"/>
-        <v>144.84210000000002</v>
+        <f t="shared" si="5"/>
+        <v>362.10525000000001</v>
       </c>
       <c r="J78" s="91"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="B79" s="82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C79" s="95">
-        <f>B79*References!AT37</f>
-        <v>60</v>
+        <f>B79*References!AT31</f>
+        <v>64</v>
       </c>
       <c r="D79" s="95">
         <v>34.5</v>
@@ -53865,267 +54042,267 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G79" s="95">
-        <f>_xlfn.IFS(E79=22.5,0.00848061,E79=22,0.00821976,E79=24,0.00929323)</f>
+        <f t="shared" si="6"/>
         <v>8.2197599999999996E-3</v>
       </c>
       <c r="H79" s="95">
-        <f t="shared" si="2"/>
-        <v>924</v>
+        <f t="shared" si="4"/>
+        <v>985.6</v>
       </c>
       <c r="I79" s="96">
-        <f t="shared" si="3"/>
-        <v>1785.0582000000002</v>
+        <f t="shared" si="5"/>
+        <v>1904.0620800000002</v>
       </c>
       <c r="J79" s="91"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="94" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B80" s="82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="95">
-        <f>B80*References!AT38</f>
-        <v>24</v>
+        <f>B80*References!AT32</f>
+        <v>2.5</v>
       </c>
       <c r="D80" s="95">
         <v>34.5</v>
       </c>
       <c r="E80" s="95">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="F80" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G80" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H80" s="95">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H80" s="95">
-        <f t="shared" si="2"/>
-        <v>354.81599999999997</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="I80" s="96">
-        <f t="shared" si="3"/>
-        <v>695.24207999999999</v>
+        <f t="shared" si="5"/>
+        <v>66.326400000000007</v>
       </c>
       <c r="J80" s="91"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="94" t="s">
-        <v>499</v>
+        <v>192</v>
       </c>
       <c r="B81" s="82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="95">
-        <f>B81*References!AT39</f>
-        <v>12.5</v>
+        <f>B81*References!AT33</f>
+        <v>48</v>
       </c>
       <c r="D81" s="95">
         <v>34.5</v>
       </c>
       <c r="E81" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F81" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G81" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H81" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H81" s="95">
-        <f t="shared" si="2"/>
-        <v>161.70000000000002</v>
+        <v>709.63199999999995</v>
       </c>
       <c r="I81" s="96">
-        <f t="shared" si="3"/>
-        <v>331.63200000000001</v>
+        <f t="shared" si="5"/>
+        <v>1390.48416</v>
       </c>
       <c r="J81" s="91"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="94" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B82" s="82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C82" s="95">
-        <f>B82*References!AT40</f>
-        <v>120</v>
+        <f>B82*References!AT34</f>
+        <v>10</v>
       </c>
       <c r="D82" s="95">
         <v>34.5</v>
       </c>
       <c r="E82" s="95">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="F82" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G82" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H82" s="95">
         <f t="shared" si="4"/>
-        <v>8.2197599999999996E-3</v>
-      </c>
-      <c r="H82" s="95">
-        <f t="shared" si="2"/>
-        <v>1848</v>
+        <v>147.84</v>
       </c>
       <c r="I82" s="96">
-        <f t="shared" si="3"/>
-        <v>3570.1164000000003</v>
+        <f t="shared" si="5"/>
+        <v>289.68420000000003</v>
       </c>
       <c r="J82" s="91"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="94" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B83" s="82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="95">
-        <f>B83*References!AT41</f>
-        <v>2.5</v>
+        <f>B83*References!AT35</f>
+        <v>10</v>
       </c>
       <c r="D83" s="95">
         <v>34.5</v>
       </c>
       <c r="E83" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F83" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G83" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H83" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H83" s="95">
-        <f t="shared" si="2"/>
-        <v>32.340000000000003</v>
+        <v>147.84</v>
       </c>
       <c r="I83" s="96">
-        <f t="shared" si="3"/>
-        <v>66.326400000000007</v>
+        <f t="shared" si="5"/>
+        <v>289.68420000000003</v>
       </c>
       <c r="J83" s="91"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B84" s="82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="95">
-        <f>B84*References!AT42</f>
-        <v>2.5</v>
+        <f>B84*References!AT36</f>
+        <v>5</v>
       </c>
       <c r="D84" s="95">
         <v>34.5</v>
       </c>
       <c r="E84" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F84" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G84" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H84" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H84" s="95">
-        <f t="shared" si="2"/>
-        <v>32.340000000000003</v>
+        <v>73.92</v>
       </c>
       <c r="I84" s="96">
-        <f t="shared" si="3"/>
-        <v>66.326400000000007</v>
+        <f t="shared" si="5"/>
+        <v>144.84210000000002</v>
       </c>
       <c r="J84" s="91"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="94" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B85" s="82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" s="95">
-        <f>B85*References!AT43</f>
-        <v>7.5</v>
+        <f>B85*References!AT37</f>
+        <v>60</v>
       </c>
       <c r="D85" s="95">
         <v>34.5</v>
       </c>
       <c r="E85" s="95">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F85" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G85" s="95">
+        <f>_xlfn.IFS(E85=22.5,0.00848061,E85=22,0.00821976,E85=24,0.00929323)</f>
+        <v>8.2197599999999996E-3</v>
+      </c>
+      <c r="H85" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H85" s="95">
-        <f t="shared" si="2"/>
-        <v>97.02</v>
+        <v>924</v>
       </c>
       <c r="I85" s="96">
-        <f t="shared" si="3"/>
-        <v>198.97920000000002</v>
+        <f t="shared" si="5"/>
+        <v>1785.0582000000002</v>
       </c>
       <c r="J85" s="91"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="94" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B86" s="82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="95">
-        <f>B86*References!AT44</f>
-        <v>5</v>
+        <f>B86*References!AT38</f>
+        <v>24</v>
       </c>
       <c r="D86" s="95">
         <v>34.5</v>
       </c>
       <c r="E86" s="95">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F86" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G86" s="95">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H86" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H86" s="95">
-        <f t="shared" si="2"/>
-        <v>64.680000000000007</v>
+        <v>354.81599999999997</v>
       </c>
       <c r="I86" s="96">
-        <f t="shared" si="3"/>
-        <v>132.65280000000001</v>
+        <f t="shared" si="5"/>
+        <v>695.24207999999999</v>
       </c>
       <c r="J86" s="91"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="94" t="s">
-        <v>229</v>
+        <v>499</v>
       </c>
       <c r="B87" s="82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="95">
-        <f>B87*References!AT45</f>
-        <v>10</v>
+        <f>B87*References!AT39</f>
+        <v>12.5</v>
       </c>
       <c r="D87" s="95">
         <v>34.5</v>
@@ -54137,382 +54314,382 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G87" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H87" s="95">
         <f t="shared" si="4"/>
-        <v>9.2932299999999995E-3</v>
-      </c>
-      <c r="H87" s="95">
-        <f t="shared" si="2"/>
-        <v>129.36000000000001</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="I87" s="96">
-        <f t="shared" si="3"/>
-        <v>265.30560000000003</v>
+        <f t="shared" si="5"/>
+        <v>331.63200000000001</v>
       </c>
       <c r="J87" s="91"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="94" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B88" s="82">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C88" s="95">
-        <f>B88*References!AT46</f>
-        <v>24</v>
+        <f>B88*References!AT40</f>
+        <v>120</v>
       </c>
       <c r="D88" s="95">
         <v>34.5</v>
       </c>
       <c r="E88" s="95">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F88" s="95">
         <v>1.813675E-2</v>
       </c>
       <c r="G88" s="95">
+        <f t="shared" si="6"/>
+        <v>8.2197599999999996E-3</v>
+      </c>
+      <c r="H88" s="95">
         <f t="shared" si="4"/>
+        <v>1848</v>
+      </c>
+      <c r="I88" s="96">
+        <f t="shared" si="5"/>
+        <v>3570.1164000000003</v>
+      </c>
+      <c r="J88" s="91"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="82">
+        <v>1</v>
+      </c>
+      <c r="C89" s="95">
+        <f>B89*References!AT41</f>
+        <v>2.5</v>
+      </c>
+      <c r="D89" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E89" s="95">
+        <v>24</v>
+      </c>
+      <c r="F89" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G89" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H89" s="95">
+        <f t="shared" si="4"/>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I89" s="96">
+        <f t="shared" si="5"/>
+        <v>66.326400000000007</v>
+      </c>
+      <c r="J89" s="91"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="82">
+        <v>1</v>
+      </c>
+      <c r="C90" s="95">
+        <f>B90*References!AT42</f>
+        <v>2.5</v>
+      </c>
+      <c r="D90" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E90" s="95">
+        <v>24</v>
+      </c>
+      <c r="F90" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G90" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H90" s="95">
+        <f t="shared" si="4"/>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I90" s="96">
+        <f t="shared" si="5"/>
+        <v>66.326400000000007</v>
+      </c>
+      <c r="J90" s="91"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="82">
+        <v>3</v>
+      </c>
+      <c r="C91" s="95">
+        <f>B91*References!AT43</f>
+        <v>7.5</v>
+      </c>
+      <c r="D91" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E91" s="95">
+        <v>24</v>
+      </c>
+      <c r="F91" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G91" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H91" s="95">
+        <f t="shared" si="4"/>
+        <v>97.02</v>
+      </c>
+      <c r="I91" s="96">
+        <f t="shared" si="5"/>
+        <v>198.97920000000002</v>
+      </c>
+      <c r="J91" s="91"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="82">
+        <v>2</v>
+      </c>
+      <c r="C92" s="95">
+        <f>B92*References!AT44</f>
+        <v>5</v>
+      </c>
+      <c r="D92" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E92" s="95">
+        <v>24</v>
+      </c>
+      <c r="F92" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G92" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H92" s="95">
+        <f t="shared" si="4"/>
+        <v>64.680000000000007</v>
+      </c>
+      <c r="I92" s="96">
+        <f t="shared" si="5"/>
+        <v>132.65280000000001</v>
+      </c>
+      <c r="J92" s="91"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="82">
+        <v>4</v>
+      </c>
+      <c r="C93" s="95">
+        <f>B93*References!AT45</f>
+        <v>10</v>
+      </c>
+      <c r="D93" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E93" s="95">
+        <v>24</v>
+      </c>
+      <c r="F93" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G93" s="95">
+        <f t="shared" si="6"/>
+        <v>9.2932299999999995E-3</v>
+      </c>
+      <c r="H93" s="95">
+        <f t="shared" si="4"/>
+        <v>129.36000000000001</v>
+      </c>
+      <c r="I93" s="96">
+        <f t="shared" si="5"/>
+        <v>265.30560000000003</v>
+      </c>
+      <c r="J93" s="91"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="82">
+        <v>3</v>
+      </c>
+      <c r="C94" s="95">
+        <f>B94*References!AT46</f>
+        <v>24</v>
+      </c>
+      <c r="D94" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E94" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F94" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G94" s="95">
+        <f t="shared" si="6"/>
         <v>8.4806099999999995E-3</v>
       </c>
-      <c r="H88" s="95">
-        <f t="shared" si="2"/>
+      <c r="H94" s="95">
+        <f t="shared" si="4"/>
         <v>354.81599999999997</v>
       </c>
-      <c r="I88" s="96">
-        <f t="shared" si="3"/>
+      <c r="I94" s="96">
+        <f t="shared" si="5"/>
         <v>695.24207999999999</v>
       </c>
-      <c r="J88" s="91"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="97" t="s">
+      <c r="J94" s="91"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="82">
+      <c r="B95" s="82">
         <v>6</v>
       </c>
-      <c r="C89" s="98">
-        <f>B89*References!AT47</f>
+      <c r="C95" s="98">
+        <f>B95*References!AT47</f>
         <v>48</v>
       </c>
-      <c r="D89" s="98">
+      <c r="D95" s="98">
         <v>34.5</v>
       </c>
-      <c r="E89" s="98">
-        <v>22.5</v>
-      </c>
-      <c r="F89" s="98">
+      <c r="E95" s="98">
+        <v>22.5</v>
+      </c>
+      <c r="F95" s="98">
         <v>1.813675E-2</v>
       </c>
-      <c r="G89" s="98">
+      <c r="G95" s="98">
+        <f t="shared" si="6"/>
+        <v>8.4806099999999995E-3</v>
+      </c>
+      <c r="H95" s="98">
         <f t="shared" si="4"/>
-        <v>8.4806099999999995E-3</v>
-      </c>
-      <c r="H89" s="98">
-        <f t="shared" si="2"/>
         <v>709.63199999999995</v>
       </c>
-      <c r="I89" s="99">
-        <f t="shared" si="3"/>
+      <c r="I95" s="99">
+        <f t="shared" si="5"/>
         <v>1390.48416</v>
       </c>
-      <c r="J89" s="91"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="129" t="s">
+      <c r="J95" s="91"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="129" t="s">
         <v>333</v>
       </c>
-      <c r="H90" s="129">
+      <c r="H96" s="129">
         <f>SUM(Table18[Qs(W)])</f>
         <v>20168.763999999999</v>
       </c>
-      <c r="I90" s="129">
+      <c r="I96" s="129">
         <f>SUM(Table18[Ql(W)])</f>
         <v>39472.195050000002</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="198" t="s">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="H91" s="198"/>
-      <c r="I91" s="129">
-        <f>H90+I90</f>
+      <c r="H97" s="204"/>
+      <c r="I97" s="129">
+        <f>H96+I96</f>
         <v>59640.959050000005</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="125"/>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="125"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="125"/>
-      <c r="J92" s="125"/>
-      <c r="K92" s="125"/>
-    </row>
-    <row r="93" spans="1:11" s="105" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="173" t="s">
+    <row r="98" spans="1:11" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="125"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="125"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="125"/>
+    </row>
+    <row r="99" spans="1:11" s="105" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A99" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="173"/>
-      <c r="C93" s="173"/>
-      <c r="D93" s="173"/>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
-      <c r="H93" s="173"/>
-      <c r="I93" s="173"/>
-      <c r="J93" s="106"/>
-      <c r="K93" s="106"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="100" t="s">
+      <c r="B99" s="179"/>
+      <c r="C99" s="179"/>
+      <c r="D99" s="179"/>
+      <c r="E99" s="179"/>
+      <c r="F99" s="179"/>
+      <c r="G99" s="179"/>
+      <c r="H99" s="179"/>
+      <c r="I99" s="179"/>
+      <c r="J99" s="106"/>
+      <c r="K99" s="106"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="101" t="s">
+      <c r="B100" s="101" t="s">
         <v>496</v>
       </c>
-      <c r="C94" s="101" t="s">
+      <c r="C100" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="101" t="s">
+      <c r="D100" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="101" t="s">
+      <c r="E100" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="101" t="s">
+      <c r="F100" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="101" t="s">
+      <c r="G100" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="H94" s="101" t="s">
+      <c r="H100" s="101" t="s">
         <v>497</v>
       </c>
-      <c r="I94" s="102" t="s">
+      <c r="I100" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="J94" s="91"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="94" t="s">
+      <c r="J100" s="91"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="82">
+      <c r="B101" s="82">
         <v>5</v>
       </c>
-      <c r="C95" s="95">
-        <f>B95*References!AU4</f>
+      <c r="C101" s="95">
+        <f>B101*References!AU4</f>
         <v>65</v>
-      </c>
-      <c r="D95" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E95" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F95" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G95" s="95">
-        <f>_xlfn.IFS(E95=22.5,0.00848031,E95=24,0.009293235,E95=22,0.00821976)</f>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H95" s="95">
-        <f t="shared" ref="H95:H124" si="5">ABS(1.232*C95*(D95-E95))</f>
-        <v>960.96</v>
-      </c>
-      <c r="I95" s="96">
-        <f t="shared" ref="I95:I124" si="6">ABS(3000*C95*(F95-G95))</f>
-        <v>1883.0058000000001</v>
-      </c>
-      <c r="J95" s="91"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="82">
-        <v>5</v>
-      </c>
-      <c r="C96" s="95">
-        <f>B96*References!AU5</f>
-        <v>65</v>
-      </c>
-      <c r="D96" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E96" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F96" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G96" s="95">
-        <f t="shared" ref="G96:G98" si="7">_xlfn.IFS(E96=22.5,0.00848031,E96=24,0.009293235,E96=22,0.00821976)</f>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H96" s="95">
-        <f t="shared" si="5"/>
-        <v>960.96</v>
-      </c>
-      <c r="I96" s="96">
-        <f t="shared" si="6"/>
-        <v>1883.0058000000001</v>
-      </c>
-      <c r="J96" s="91"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="B97" s="82">
-        <v>5</v>
-      </c>
-      <c r="C97" s="95">
-        <f>B97*References!AU6</f>
-        <v>65</v>
-      </c>
-      <c r="D97" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E97" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F97" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G97" s="95">
-        <f t="shared" si="7"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H97" s="95">
-        <f t="shared" si="5"/>
-        <v>960.96</v>
-      </c>
-      <c r="I97" s="96">
-        <f t="shared" si="6"/>
-        <v>1883.0058000000001</v>
-      </c>
-      <c r="J97" s="91"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="82">
-        <v>5</v>
-      </c>
-      <c r="C98" s="95">
-        <f>B98*References!AU7</f>
-        <v>65</v>
-      </c>
-      <c r="D98" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E98" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F98" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G98" s="95">
-        <f t="shared" si="7"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H98" s="95">
-        <f t="shared" si="5"/>
-        <v>960.96</v>
-      </c>
-      <c r="I98" s="96">
-        <f t="shared" si="6"/>
-        <v>1883.0058000000001</v>
-      </c>
-      <c r="J98" s="91"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" s="82">
-        <v>2</v>
-      </c>
-      <c r="C99" s="95">
-        <f>B99*References!AU8</f>
-        <v>26</v>
-      </c>
-      <c r="D99" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E99" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F99" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G99" s="95">
-        <f>_xlfn.IFS(E99=22.5,0.00848031,E99=24,0.009293235,E99=22,0.00821976)</f>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H99" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I99" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
-      </c>
-      <c r="J99" s="91"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B100" s="82">
-        <v>1</v>
-      </c>
-      <c r="C100" s="95">
-        <f>B100*References!AU9</f>
-        <v>13</v>
-      </c>
-      <c r="D100" s="95">
-        <v>34.5</v>
-      </c>
-      <c r="E100" s="95">
-        <v>22.5</v>
-      </c>
-      <c r="F100" s="95">
-        <v>1.813675E-2</v>
-      </c>
-      <c r="G100" s="95">
-        <f t="shared" ref="G100:G124" si="8">_xlfn.IFS(E100=22.5,0.00848031,E100=24,0.009293235,E100=22,0.00821976)</f>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H100" s="95">
-        <f t="shared" si="5"/>
-        <v>192.19199999999998</v>
-      </c>
-      <c r="I100" s="96">
-        <f t="shared" si="6"/>
-        <v>376.60115999999999</v>
-      </c>
-      <c r="J100" s="91"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" s="82">
-        <v>2</v>
-      </c>
-      <c r="C101" s="95">
-        <f>B101*References!AU10</f>
-        <v>26</v>
       </c>
       <c r="D101" s="95">
         <v>34.5</v>
@@ -54524,29 +54701,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G101" s="95">
-        <f t="shared" si="8"/>
+        <f>_xlfn.IFS(E101=22.5,0.00848031,E101=24,0.009293235,E101=22,0.00821976)</f>
         <v>8.4803099999999996E-3</v>
       </c>
       <c r="H101" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
+        <f t="shared" ref="H101:H130" si="7">ABS(1.232*C101*(D101-E101))</f>
+        <v>960.96</v>
       </c>
       <c r="I101" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
+        <f t="shared" ref="I101:I130" si="8">ABS(3000*C101*(F101-G101))</f>
+        <v>1883.0058000000001</v>
       </c>
       <c r="J101" s="91"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="94" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B102" s="82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" s="95">
-        <f>B102*References!AU11</f>
-        <v>17.5</v>
+        <f>B102*References!AU5</f>
+        <v>65</v>
       </c>
       <c r="D102" s="95">
         <v>34.5</v>
@@ -54558,29 +54735,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G102" s="95">
+        <f t="shared" ref="G102:G104" si="9">_xlfn.IFS(E102=22.5,0.00848031,E102=24,0.009293235,E102=22,0.00821976)</f>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H102" s="95">
+        <f t="shared" si="7"/>
+        <v>960.96</v>
+      </c>
+      <c r="I102" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H102" s="95">
-        <f t="shared" si="5"/>
-        <v>258.71999999999997</v>
-      </c>
-      <c r="I102" s="96">
-        <f t="shared" si="6"/>
-        <v>506.96310000000005</v>
+        <v>1883.0058000000001</v>
       </c>
       <c r="J102" s="91"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="94" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B103" s="82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C103" s="95">
-        <f>B103*References!AU12</f>
-        <v>16</v>
+        <f>B103*References!AU6</f>
+        <v>65</v>
       </c>
       <c r="D103" s="95">
         <v>34.5</v>
@@ -54592,29 +54769,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G103" s="95">
+        <f t="shared" si="9"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H103" s="95">
+        <f t="shared" si="7"/>
+        <v>960.96</v>
+      </c>
+      <c r="I103" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H103" s="95">
-        <f t="shared" si="5"/>
-        <v>236.54399999999998</v>
-      </c>
-      <c r="I103" s="96">
-        <f t="shared" si="6"/>
-        <v>463.50912000000005</v>
+        <v>1883.0058000000001</v>
       </c>
       <c r="J103" s="91"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="94" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B104" s="82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C104" s="95">
-        <f>B104*References!AU13</f>
-        <v>26</v>
+        <f>B104*References!AU7</f>
+        <v>65</v>
       </c>
       <c r="D104" s="95">
         <v>34.5</v>
@@ -54626,28 +54803,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G104" s="95">
+        <f t="shared" si="9"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H104" s="95">
+        <f t="shared" si="7"/>
+        <v>960.96</v>
+      </c>
+      <c r="I104" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H104" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I104" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
+        <v>1883.0058000000001</v>
       </c>
       <c r="J104" s="91"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="94" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B105" s="82">
         <v>2</v>
       </c>
       <c r="C105" s="95">
-        <f>B105*References!AU14</f>
+        <f>B105*References!AU8</f>
         <v>26</v>
       </c>
       <c r="D105" s="95">
@@ -54660,28 +54837,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G105" s="95">
+        <f>_xlfn.IFS(E105=22.5,0.00848031,E105=24,0.009293235,E105=22,0.00821976)</f>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H105" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I105" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H105" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I105" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J105" s="91"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="94" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B106" s="82">
         <v>1</v>
       </c>
       <c r="C106" s="95">
-        <f>B106*References!AU15</f>
+        <f>B106*References!AU9</f>
         <v>13</v>
       </c>
       <c r="D106" s="95">
@@ -54694,28 +54871,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G106" s="95">
+        <f t="shared" ref="G106:G129" si="10">_xlfn.IFS(E106=22.5,0.00848031,E106=24,0.009293235,E106=22,0.00821976)</f>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H106" s="95">
+        <f t="shared" si="7"/>
+        <v>192.19199999999998</v>
+      </c>
+      <c r="I106" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H106" s="95">
-        <f t="shared" si="5"/>
-        <v>192.19199999999998</v>
-      </c>
-      <c r="I106" s="96">
-        <f t="shared" si="6"/>
         <v>376.60115999999999</v>
       </c>
       <c r="J106" s="91"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="94" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B107" s="82">
         <v>2</v>
       </c>
       <c r="C107" s="95">
-        <f>B107*References!AU16</f>
+        <f>B107*References!AU10</f>
         <v>26</v>
       </c>
       <c r="D107" s="95">
@@ -54728,29 +54905,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G107" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H107" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I107" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H107" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I107" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J107" s="91"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="94" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B108" s="82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C108" s="95">
-        <f>B108*References!AU17</f>
-        <v>26</v>
+        <f>B108*References!AU11</f>
+        <v>17.5</v>
       </c>
       <c r="D108" s="95">
         <v>34.5</v>
@@ -54762,29 +54939,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G108" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H108" s="95">
+        <f t="shared" si="7"/>
+        <v>258.71999999999997</v>
+      </c>
+      <c r="I108" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H108" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I108" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
+        <v>506.96310000000005</v>
       </c>
       <c r="J108" s="91"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="94" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B109" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" s="95">
-        <f>B109*References!AU18</f>
-        <v>39</v>
+        <f>B109*References!AU12</f>
+        <v>16</v>
       </c>
       <c r="D109" s="95">
         <v>34.5</v>
@@ -54796,29 +54973,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G109" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H109" s="95">
+        <f t="shared" si="7"/>
+        <v>236.54399999999998</v>
+      </c>
+      <c r="I109" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H109" s="95">
-        <f t="shared" si="5"/>
-        <v>576.57600000000002</v>
-      </c>
-      <c r="I109" s="96">
-        <f t="shared" si="6"/>
-        <v>1129.80348</v>
+        <v>463.50912000000005</v>
       </c>
       <c r="J109" s="91"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B110" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="95">
-        <f>B110*References!AU19</f>
-        <v>39</v>
+        <f>B110*References!AU13</f>
+        <v>26</v>
       </c>
       <c r="D110" s="95">
         <v>34.5</v>
@@ -54830,28 +55007,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G110" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H110" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I110" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H110" s="95">
-        <f t="shared" si="5"/>
-        <v>576.57600000000002</v>
-      </c>
-      <c r="I110" s="96">
-        <f t="shared" si="6"/>
-        <v>1129.80348</v>
+        <v>753.20231999999999</v>
       </c>
       <c r="J110" s="91"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="94" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B111" s="82">
         <v>2</v>
       </c>
       <c r="C111" s="95">
-        <f>B111*References!AU20</f>
+        <f>B111*References!AU14</f>
         <v>26</v>
       </c>
       <c r="D111" s="95">
@@ -54864,29 +55041,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G111" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H111" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I111" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H111" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I111" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J111" s="91"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="94" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B112" s="82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" s="95">
-        <f>B112*References!AU21</f>
-        <v>26</v>
+        <f>B112*References!AU15</f>
+        <v>13</v>
       </c>
       <c r="D112" s="95">
         <v>34.5</v>
@@ -54898,28 +55075,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G112" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H112" s="95">
+        <f t="shared" si="7"/>
+        <v>192.19199999999998</v>
+      </c>
+      <c r="I112" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H112" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I112" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
+        <v>376.60115999999999</v>
       </c>
       <c r="J112" s="91"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="s">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="B113" s="82">
         <v>2</v>
       </c>
       <c r="C113" s="95">
-        <f>B113*References!AU22</f>
+        <f>B113*References!AU16</f>
         <v>26</v>
       </c>
       <c r="D113" s="95">
@@ -54932,28 +55109,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G113" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H113" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I113" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H113" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I113" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J113" s="91"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="B114" s="82">
         <v>2</v>
       </c>
       <c r="C114" s="95">
-        <f>B114*References!AU23</f>
+        <f>B114*References!AU17</f>
         <v>26</v>
       </c>
       <c r="D114" s="95">
@@ -54966,29 +55143,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G114" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H114" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I114" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H114" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I114" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J114" s="91"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="94" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="B115" s="82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" s="95">
-        <f>B115*References!AU24</f>
-        <v>26</v>
+        <f>B115*References!AU18</f>
+        <v>39</v>
       </c>
       <c r="D115" s="95">
         <v>34.5</v>
@@ -55000,29 +55177,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G115" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H115" s="95">
+        <f t="shared" si="7"/>
+        <v>576.57600000000002</v>
+      </c>
+      <c r="I115" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H115" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I115" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
+        <v>1129.80348</v>
       </c>
       <c r="J115" s="91"/>
     </row>
-    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="94" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="B116" s="82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="95">
-        <f>B116*References!AU25</f>
-        <v>26</v>
+        <f>B116*References!AU19</f>
+        <v>39</v>
       </c>
       <c r="D116" s="95">
         <v>34.5</v>
@@ -55034,28 +55211,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G116" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H116" s="95">
+        <f t="shared" si="7"/>
+        <v>576.57600000000002</v>
+      </c>
+      <c r="I116" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H116" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I116" s="96">
-        <f t="shared" si="6"/>
-        <v>753.20231999999999</v>
+        <v>1129.80348</v>
       </c>
       <c r="J116" s="91"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="94" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B117" s="82">
         <v>2</v>
       </c>
       <c r="C117" s="95">
-        <f>B117*References!AU26</f>
+        <f>B117*References!AU20</f>
         <v>26</v>
       </c>
       <c r="D117" s="95">
@@ -55068,28 +55245,28 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G117" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H117" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I117" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H117" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I117" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J117" s="91"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="94" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="B118" s="82">
         <v>2</v>
       </c>
       <c r="C118" s="95">
-        <f>B118*References!AU27</f>
+        <f>B118*References!AU21</f>
         <v>26</v>
       </c>
       <c r="D118" s="95">
@@ -55102,29 +55279,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G118" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H118" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I118" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H118" s="95">
-        <f t="shared" si="5"/>
-        <v>384.38399999999996</v>
-      </c>
-      <c r="I118" s="96">
-        <f t="shared" si="6"/>
         <v>753.20231999999999</v>
       </c>
       <c r="J118" s="91"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="94" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B119" s="82">
         <v>2</v>
       </c>
       <c r="C119" s="95">
-        <f>B119*References!AU28</f>
-        <v>5</v>
+        <f>B119*References!AU22</f>
+        <v>26</v>
       </c>
       <c r="D119" s="95">
         <v>34.5</v>
@@ -55136,29 +55313,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G119" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H119" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I119" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H119" s="95">
-        <f t="shared" si="5"/>
-        <v>73.92</v>
-      </c>
-      <c r="I119" s="96">
-        <f t="shared" si="6"/>
-        <v>144.8466</v>
+        <v>753.20231999999999</v>
       </c>
       <c r="J119" s="91"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="94" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B120" s="82">
         <v>2</v>
       </c>
       <c r="C120" s="95">
-        <f>B120*References!AU29</f>
-        <v>5</v>
+        <f>B120*References!AU23</f>
+        <v>26</v>
       </c>
       <c r="D120" s="95">
         <v>34.5</v>
@@ -55170,29 +55347,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G120" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H120" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I120" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H120" s="95">
-        <f t="shared" si="5"/>
-        <v>73.92</v>
-      </c>
-      <c r="I120" s="96">
-        <f t="shared" si="6"/>
-        <v>144.8466</v>
+        <v>753.20231999999999</v>
       </c>
       <c r="J120" s="91"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="94" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="B121" s="82">
         <v>2</v>
       </c>
       <c r="C121" s="95">
-        <f>B121*References!AU30</f>
-        <v>5</v>
+        <f>B121*References!AU24</f>
+        <v>26</v>
       </c>
       <c r="D121" s="95">
         <v>34.5</v>
@@ -55204,29 +55381,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G121" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H121" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I121" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H121" s="95">
-        <f t="shared" si="5"/>
-        <v>73.92</v>
-      </c>
-      <c r="I121" s="96">
-        <f t="shared" si="6"/>
-        <v>144.8466</v>
+        <v>753.20231999999999</v>
       </c>
       <c r="J121" s="91"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="94" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="B122" s="82">
         <v>2</v>
       </c>
       <c r="C122" s="95">
-        <f>B122*References!AU31</f>
-        <v>5</v>
+        <f>B122*References!AU25</f>
+        <v>26</v>
       </c>
       <c r="D122" s="95">
         <v>34.5</v>
@@ -55238,29 +55415,29 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G122" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H122" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I122" s="96">
         <f t="shared" si="8"/>
-        <v>8.4803099999999996E-3</v>
-      </c>
-      <c r="H122" s="95">
-        <f t="shared" si="5"/>
-        <v>73.92</v>
-      </c>
-      <c r="I122" s="96">
-        <f t="shared" si="6"/>
-        <v>144.8466</v>
+        <v>753.20231999999999</v>
       </c>
       <c r="J122" s="91"/>
     </row>
-    <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="94" t="s">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="B123" s="82">
         <v>2</v>
       </c>
       <c r="C123" s="95">
-        <f>B123*References!AU32</f>
-        <v>5</v>
+        <f>B123*References!AU26</f>
+        <v>26</v>
       </c>
       <c r="D123" s="95">
         <v>34.5</v>
@@ -55272,161 +55449,365 @@
         <v>1.813675E-2</v>
       </c>
       <c r="G123" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H123" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I123" s="96">
         <f t="shared" si="8"/>
+        <v>753.20231999999999</v>
+      </c>
+      <c r="J123" s="91"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="94" t="s">
+        <v>310</v>
+      </c>
+      <c r="B124" s="82">
+        <v>2</v>
+      </c>
+      <c r="C124" s="95">
+        <f>B124*References!AU27</f>
+        <v>26</v>
+      </c>
+      <c r="D124" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E124" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F124" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G124" s="95">
+        <f t="shared" si="10"/>
         <v>8.4803099999999996E-3</v>
       </c>
-      <c r="H123" s="95">
-        <f t="shared" si="5"/>
+      <c r="H124" s="95">
+        <f t="shared" si="7"/>
+        <v>384.38399999999996</v>
+      </c>
+      <c r="I124" s="96">
+        <f t="shared" si="8"/>
+        <v>753.20231999999999</v>
+      </c>
+      <c r="J124" s="91"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="B125" s="82">
+        <v>2</v>
+      </c>
+      <c r="C125" s="95">
+        <f>B125*References!AU28</f>
+        <v>5</v>
+      </c>
+      <c r="D125" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E125" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F125" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G125" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H125" s="95">
+        <f t="shared" si="7"/>
         <v>73.92</v>
       </c>
-      <c r="I123" s="96">
-        <f t="shared" si="6"/>
+      <c r="I125" s="96">
+        <f t="shared" si="8"/>
         <v>144.8466</v>
       </c>
-      <c r="J123" s="91"/>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="97" t="s">
+      <c r="J125" s="91"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="94" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="82">
+        <v>2</v>
+      </c>
+      <c r="C126" s="95">
+        <f>B126*References!AU29</f>
+        <v>5</v>
+      </c>
+      <c r="D126" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E126" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F126" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G126" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H126" s="95">
+        <f t="shared" si="7"/>
+        <v>73.92</v>
+      </c>
+      <c r="I126" s="96">
+        <f t="shared" si="8"/>
+        <v>144.8466</v>
+      </c>
+      <c r="J126" s="91"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="82">
+        <v>2</v>
+      </c>
+      <c r="C127" s="95">
+        <f>B127*References!AU30</f>
+        <v>5</v>
+      </c>
+      <c r="D127" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E127" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F127" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G127" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H127" s="95">
+        <f t="shared" si="7"/>
+        <v>73.92</v>
+      </c>
+      <c r="I127" s="96">
+        <f t="shared" si="8"/>
+        <v>144.8466</v>
+      </c>
+      <c r="J127" s="91"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" s="82">
+        <v>2</v>
+      </c>
+      <c r="C128" s="95">
+        <f>B128*References!AU31</f>
+        <v>5</v>
+      </c>
+      <c r="D128" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E128" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F128" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G128" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H128" s="95">
+        <f t="shared" si="7"/>
+        <v>73.92</v>
+      </c>
+      <c r="I128" s="96">
+        <f t="shared" si="8"/>
+        <v>144.8466</v>
+      </c>
+      <c r="J128" s="91"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="82">
+        <v>2</v>
+      </c>
+      <c r="C129" s="95">
+        <f>B129*References!AU32</f>
+        <v>5</v>
+      </c>
+      <c r="D129" s="95">
+        <v>34.5</v>
+      </c>
+      <c r="E129" s="95">
+        <v>22.5</v>
+      </c>
+      <c r="F129" s="95">
+        <v>1.813675E-2</v>
+      </c>
+      <c r="G129" s="95">
+        <f t="shared" si="10"/>
+        <v>8.4803099999999996E-3</v>
+      </c>
+      <c r="H129" s="95">
+        <f t="shared" si="7"/>
+        <v>73.92</v>
+      </c>
+      <c r="I129" s="96">
+        <f t="shared" si="8"/>
+        <v>144.8466</v>
+      </c>
+      <c r="J129" s="91"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="B124" s="82">
+      <c r="B130" s="82">
         <v>6</v>
       </c>
-      <c r="C124" s="98">
-        <f>B124*References!AU33</f>
+      <c r="C130" s="98">
+        <f>B130*References!AU33</f>
         <v>48</v>
       </c>
-      <c r="D124" s="98">
+      <c r="D130" s="98">
         <v>34.5</v>
       </c>
-      <c r="E124" s="98">
+      <c r="E130" s="98">
         <v>24</v>
       </c>
-      <c r="F124" s="98">
+      <c r="F130" s="98">
         <v>1.813675E-2</v>
       </c>
-      <c r="G124" s="98">
+      <c r="G130" s="98">
         <v>9.2932350000000004E-3</v>
       </c>
-      <c r="H124" s="98">
-        <f t="shared" si="5"/>
+      <c r="H130" s="98">
+        <f t="shared" si="7"/>
         <v>620.928</v>
       </c>
-      <c r="I124" s="99">
-        <f t="shared" si="6"/>
+      <c r="I130" s="99">
+        <f t="shared" si="8"/>
         <v>1273.4661599999999</v>
       </c>
-      <c r="J124" s="91"/>
-    </row>
-    <row r="125" spans="1:11" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="97" t="s">
+      <c r="J130" s="91"/>
+    </row>
+    <row r="131" spans="1:11" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="97" t="s">
         <v>418</v>
       </c>
-      <c r="B125" s="98">
+      <c r="B131" s="98">
         <v>2</v>
       </c>
-      <c r="C125" s="98">
+      <c r="C131" s="98">
         <v>26</v>
       </c>
-      <c r="D125" s="98">
+      <c r="D131" s="98">
         <v>34.5</v>
       </c>
-      <c r="E125" s="98">
-        <v>22.5</v>
-      </c>
-      <c r="F125" s="98">
+      <c r="E131" s="98">
+        <v>22.5</v>
+      </c>
+      <c r="F131" s="98">
         <v>1.813675E-2</v>
       </c>
-      <c r="G125" s="98">
-        <f>_xlfn.IFS(E125=22.5,0.00848031,E125=24,0.009293235,E125=22,0.00821976)</f>
+      <c r="G131" s="98">
+        <f>_xlfn.IFS(E131=22.5,0.00848031,E131=24,0.009293235,E131=22,0.00821976)</f>
         <v>8.4803099999999996E-3</v>
       </c>
-      <c r="H125" s="169">
-        <f>ABS(1.232*C125*(D125-E125))</f>
+      <c r="H131" s="169">
+        <f>ABS(1.232*C131*(D131-E131))</f>
         <v>384.38399999999996</v>
       </c>
-      <c r="I125" s="170">
-        <f>ABS(3000*C125*(F125-G125))</f>
+      <c r="I131" s="170">
+        <f>ABS(3000*C131*(F131-G131))</f>
         <v>753.20231999999999</v>
       </c>
-      <c r="J125" s="91"/>
-      <c r="K125" s="125"/>
-    </row>
-    <row r="126" spans="1:11" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="97" t="s">
+      <c r="J131" s="91"/>
+      <c r="K131" s="125"/>
+    </row>
+    <row r="132" spans="1:11" s="119" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="97" t="s">
         <v>419</v>
       </c>
-      <c r="B126" s="98">
+      <c r="B132" s="98">
         <v>2</v>
       </c>
-      <c r="C126" s="98">
+      <c r="C132" s="98">
         <v>26</v>
       </c>
-      <c r="D126" s="98">
+      <c r="D132" s="98">
         <v>34.5</v>
       </c>
-      <c r="E126" s="98">
-        <v>22.5</v>
-      </c>
-      <c r="F126" s="98">
+      <c r="E132" s="98">
+        <v>22.5</v>
+      </c>
+      <c r="F132" s="98">
         <v>1.813675E-2</v>
       </c>
-      <c r="G126" s="98">
-        <f>_xlfn.IFS(E126=22.5,0.00848031,E126=24,0.009293235,E126=22,0.00821976)</f>
+      <c r="G132" s="98">
+        <f>_xlfn.IFS(E132=22.5,0.00848031,E132=24,0.009293235,E132=22,0.00821976)</f>
         <v>8.4803099999999996E-3</v>
       </c>
-      <c r="H126" s="169">
-        <f>ABS(1.232*C126*(D126-E126))</f>
+      <c r="H132" s="169">
+        <f>ABS(1.232*C132*(D132-E132))</f>
         <v>384.38399999999996</v>
       </c>
-      <c r="I126" s="170">
-        <f>ABS(3000*C126*(F126-G126))</f>
+      <c r="I132" s="170">
+        <f>ABS(3000*C132*(F132-G132))</f>
         <v>753.20231999999999</v>
       </c>
-      <c r="J126" s="91"/>
-      <c r="K126" s="125"/>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G127" s="129" t="s">
+      <c r="J132" s="91"/>
+      <c r="K132" s="125"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="129" t="s">
         <v>333</v>
       </c>
-      <c r="H127" s="129">
+      <c r="H133" s="129">
         <f>SUM(Table19[Qs(W)])</f>
         <v>13017.312</v>
       </c>
-      <c r="I127" s="129">
+      <c r="I133" s="129">
         <f>SUM(Table19[Ql(W)])</f>
         <v>25564.24098000001</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G128" s="198" t="s">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="H128" s="198"/>
-      <c r="I128" s="129">
-        <f>H127+I127</f>
+      <c r="H134" s="204"/>
+      <c r="I134" s="129">
+        <f>H133+I133</f>
         <v>38581.552980000008</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="G134:H134"/>
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G91:H91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -55442,8 +55823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55459,29 +55840,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
       <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -55509,14 +55890,14 @@
       <c r="H3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="188" t="s">
+      <c r="N3" s="193" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
@@ -55545,9 +55926,9 @@
         <f t="shared" ref="H4:H40" si="1">C4*E4*F4</f>
         <v>25.76</v>
       </c>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
       <c r="Q4" s="134" t="s">
         <v>541</v>
       </c>
@@ -55585,11 +55966,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N5" s="190" t="s">
+      <c r="N5" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="190"/>
-      <c r="P5" s="190"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="195"/>
       <c r="Q5" s="82">
         <f>G41</f>
         <v>6432.18</v>
@@ -55630,11 +56011,11 @@
         <f t="shared" si="1"/>
         <v>36.800000000000004</v>
       </c>
-      <c r="N6" s="190" t="s">
+      <c r="N6" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="190"/>
-      <c r="P6" s="190"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
       <c r="Q6" s="82">
         <f>G90</f>
         <v>8765.2999999999993</v>
@@ -55675,11 +56056,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N7" s="190" t="s">
+      <c r="N7" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="190"/>
-      <c r="P7" s="190"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="195"/>
       <c r="Q7" s="82">
         <f>G127</f>
         <v>4519.5</v>
@@ -55720,20 +56101,20 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N8" s="178" t="s">
+      <c r="N8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="182">
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="185">
         <f>SUM(Q5:Q7)</f>
         <v>19716.98</v>
       </c>
-      <c r="R8" s="182">
+      <c r="R8" s="185">
         <f>SUM(R5:R7)</f>
         <v>10453.359999999999</v>
       </c>
-      <c r="S8" s="182">
+      <c r="S8" s="185">
         <f>S5+S6+S7</f>
         <v>30170.339999999997</v>
       </c>
@@ -55765,12 +56146,12 @@
         <f t="shared" si="1"/>
         <v>62.1</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="94" t="s">
@@ -56646,26 +57027,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="198" t="s">
+      <c r="F42" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="198"/>
+      <c r="G42" s="204"/>
       <c r="H42" s="129">
         <f>G41+H41</f>
         <v>8320.9399999999987</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
       <c r="I44" s="103"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57940,26 +58321,26 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F91" s="198" t="s">
+      <c r="F91" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="198"/>
+      <c r="G91" s="204"/>
       <c r="H91" s="129">
         <f>G90+H90</f>
         <v>15197.8</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="173" t="s">
+      <c r="A93" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="173"/>
-      <c r="C93" s="173"/>
-      <c r="D93" s="173"/>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
-      <c r="H93" s="173"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="179"/>
+      <c r="E93" s="179"/>
+      <c r="F93" s="179"/>
+      <c r="G93" s="179"/>
+      <c r="H93" s="179"/>
       <c r="I93" s="106"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58898,10 +59279,10 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F128" s="198" t="s">
+      <c r="F128" s="204" t="s">
         <v>534</v>
       </c>
-      <c r="G128" s="198"/>
+      <c r="G128" s="204"/>
       <c r="H128" s="129">
         <f>G127+H127</f>
         <v>6651.6</v>
@@ -58909,6 +59290,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F91:G91"/>
     <mergeCell ref="F128:G128"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:P4"/>
@@ -58920,11 +59306,6 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F91:G91"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58952,28 +59333,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="130"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="205" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="103"/>
       <c r="I2" s="103"/>
     </row>
@@ -59000,14 +59381,14 @@
         <v>23</v>
       </c>
       <c r="H3" s="85"/>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="181" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -59034,14 +59415,14 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H4" s="85"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176" t="s">
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
@@ -59068,17 +59449,17 @@
         <v>4.21875</v>
       </c>
       <c r="H5" s="112"/>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177">
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183">
         <f>G63</f>
         <v>1147.9227799999999</v>
       </c>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
@@ -59105,17 +59486,17 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H6" s="85"/>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177">
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183">
         <f>G137</f>
         <v>1229.8197599999994</v>
       </c>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81"/>
@@ -59140,17 +59521,17 @@
         <v>3.8515200000000003</v>
       </c>
       <c r="H7" s="85"/>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177">
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183">
         <f>G201</f>
         <v>1068.55</v>
       </c>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
@@ -59177,17 +59558,17 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H8" s="85"/>
-      <c r="K8" s="178" t="s">
+      <c r="K8" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="192">
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="197">
         <f>N5+N6+N7</f>
         <v>3446.2925399999995</v>
       </c>
-      <c r="O8" s="193"/>
-      <c r="P8" s="194"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="199"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
@@ -59214,12 +59595,12 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H9" s="85"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="195"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="197"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="202"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
@@ -60575,15 +60956,15 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="199" t="s">
+      <c r="A65" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="199"/>
-      <c r="C65" s="199"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="199"/>
-      <c r="F65" s="199"/>
-      <c r="G65" s="199"/>
+      <c r="B65" s="205"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="205"/>
+      <c r="G65" s="205"/>
       <c r="H65" s="131"/>
       <c r="I65" s="119"/>
     </row>
